--- a/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.744029384203685</v>
+        <v>1.744029384203657</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5198629899229843</v>
+        <v>0.5198629899227569</v>
       </c>
       <c r="E2">
         <v>2.954297489271994</v>
       </c>
       <c r="F2">
-        <v>9.419183470601695</v>
+        <v>9.419183470601837</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.09829654373939967</v>
+        <v>0.09829654373939434</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.100566923676865</v>
+        <v>3.10056692367688</v>
       </c>
       <c r="L2">
-        <v>3.305911894820028</v>
+        <v>3.305911894820071</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.501207060729428</v>
+        <v>1.501207060729399</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4207878862557948</v>
+        <v>0.420787886255809</v>
       </c>
       <c r="E3">
-        <v>2.486978635198511</v>
+        <v>2.486978635198469</v>
       </c>
       <c r="F3">
-        <v>7.732562009569762</v>
+        <v>7.732562009569733</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1242496591548594</v>
+        <v>0.1242496591548559</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.355489245187016</v>
+        <v>1.355489245186845</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3668598043743287</v>
+        <v>0.3668598043739877</v>
       </c>
       <c r="E4">
-        <v>2.21951064247861</v>
+        <v>2.219510642478596</v>
       </c>
       <c r="F4">
-        <v>6.800314716128554</v>
+        <v>6.800314716128526</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1426945321428352</v>
+        <v>0.1426945321428406</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.311351485027146</v>
+        <v>2.311351485027132</v>
       </c>
       <c r="L4">
-        <v>2.494225231606833</v>
+        <v>2.494225231606819</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.29674163215185</v>
+        <v>1.296741632151821</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.346177480640236</v>
+        <v>0.3461774806402929</v>
       </c>
       <c r="E5">
-        <v>2.114055863608044</v>
+        <v>2.114055863608002</v>
       </c>
       <c r="F5">
-        <v>6.439850085464911</v>
+        <v>6.439850085464798</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1507629100858807</v>
+        <v>0.1507629100858878</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.198019035250113</v>
+        <v>2.198019035250084</v>
       </c>
       <c r="L5">
-        <v>2.376057007332662</v>
+        <v>2.376057007332648</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.287019730030181</v>
+        <v>1.287019730030067</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3428111283659092</v>
+        <v>0.3428111283657103</v>
       </c>
       <c r="E6">
-        <v>2.096728011939916</v>
+        <v>2.096728011939931</v>
       </c>
       <c r="F6">
         <v>6.381017134399912</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1521340475467134</v>
+        <v>0.152134047546717</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.179400920987021</v>
+        <v>2.179400920987007</v>
       </c>
       <c r="L6">
         <v>2.356605942361838</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.354694629410005</v>
+        <v>1.354694629410119</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.366576113939999</v>
+        <v>0.3665761139399848</v>
       </c>
       <c r="E7">
         <v>2.218075557604749</v>
       </c>
       <c r="F7">
-        <v>6.795381769336132</v>
+        <v>6.795381769336188</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1428012004715224</v>
+        <v>0.1428012004715242</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.309808963168848</v>
+        <v>2.309808963168834</v>
       </c>
       <c r="L7">
-        <v>2.492619596062738</v>
+        <v>2.492619596062724</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.659451225733363</v>
+        <v>1.659451225733079</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0.4839466770252443</v>
       </c>
       <c r="E8">
-        <v>2.788132703965502</v>
+        <v>2.788132703965431</v>
       </c>
       <c r="F8">
-        <v>8.81142715751588</v>
+        <v>8.811427157515766</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.1066694420475063</v>
+        <v>0.1066694420475169</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.922362162452799</v>
+        <v>2.922362162452828</v>
       </c>
       <c r="L8">
         <v>3.124355010213321</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.299652008376142</v>
+        <v>2.299652008376029</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.8044552977530657</v>
+        <v>0.8044552977530088</v>
       </c>
       <c r="E9">
         <v>4.171480966443426</v>
       </c>
       <c r="F9">
-        <v>14.10681415486135</v>
+        <v>14.10681415486113</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.06116945368204796</v>
+        <v>0.06116945368205506</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>4.390752120172664</v>
       </c>
       <c r="L9">
-        <v>4.589288033617237</v>
+        <v>4.589288033617208</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E10">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F10">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L10">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E11">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F11">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L11">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E12">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F12">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L12">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E13">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F13">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L13">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E14">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F14">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L14">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E15">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F15">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L15">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E16">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F16">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L16">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E17">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F17">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L17">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E18">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F18">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L18">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E19">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F19">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L19">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E20">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F20">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L20">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E21">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F21">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L21">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E22">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F22">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L22">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E23">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F23">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L23">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E24">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F24">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L24">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.852692673585636</v>
+        <v>2.852692673585352</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.242661931702145</v>
+        <v>1.242661931702116</v>
       </c>
       <c r="E25">
-        <v>5.82370336948685</v>
+        <v>5.823703369486822</v>
       </c>
       <c r="F25">
-        <v>20.9451270942518</v>
+        <v>20.94512709425186</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.06065405685546565</v>
+        <v>0.06065405685547631</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.048924545663397</v>
+        <v>6.048924545663425</v>
       </c>
       <c r="L25">
-        <v>6.150148453509829</v>
+        <v>6.150148453509871</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.744029384203657</v>
+        <v>1.744029384203685</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5198629899227569</v>
+        <v>0.5198629899229843</v>
       </c>
       <c r="E2">
         <v>2.954297489271994</v>
       </c>
       <c r="F2">
-        <v>9.419183470601837</v>
+        <v>9.419183470601695</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.09829654373939434</v>
+        <v>0.09829654373939967</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.10056692367688</v>
+        <v>3.100566923676865</v>
       </c>
       <c r="L2">
-        <v>3.305911894820071</v>
+        <v>3.305911894820028</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.501207060729399</v>
+        <v>1.501207060729428</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.420787886255809</v>
+        <v>0.4207878862557948</v>
       </c>
       <c r="E3">
-        <v>2.486978635198469</v>
+        <v>2.486978635198511</v>
       </c>
       <c r="F3">
-        <v>7.732562009569733</v>
+        <v>7.732562009569762</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1242496591548559</v>
+        <v>0.1242496591548594</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.355489245186845</v>
+        <v>1.355489245187016</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3668598043739877</v>
+        <v>0.3668598043743287</v>
       </c>
       <c r="E4">
-        <v>2.219510642478596</v>
+        <v>2.21951064247861</v>
       </c>
       <c r="F4">
-        <v>6.800314716128526</v>
+        <v>6.800314716128554</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1426945321428406</v>
+        <v>0.1426945321428352</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.311351485027132</v>
+        <v>2.311351485027146</v>
       </c>
       <c r="L4">
-        <v>2.494225231606819</v>
+        <v>2.494225231606833</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.296741632151821</v>
+        <v>1.29674163215185</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3461774806402929</v>
+        <v>0.346177480640236</v>
       </c>
       <c r="E5">
-        <v>2.114055863608002</v>
+        <v>2.114055863608044</v>
       </c>
       <c r="F5">
-        <v>6.439850085464798</v>
+        <v>6.439850085464911</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1507629100858878</v>
+        <v>0.1507629100858807</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.198019035250084</v>
+        <v>2.198019035250113</v>
       </c>
       <c r="L5">
-        <v>2.376057007332648</v>
+        <v>2.376057007332662</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.287019730030067</v>
+        <v>1.287019730030181</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3428111283657103</v>
+        <v>0.3428111283659092</v>
       </c>
       <c r="E6">
-        <v>2.096728011939931</v>
+        <v>2.096728011939916</v>
       </c>
       <c r="F6">
         <v>6.381017134399912</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.152134047546717</v>
+        <v>0.1521340475467134</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.179400920987007</v>
+        <v>2.179400920987021</v>
       </c>
       <c r="L6">
         <v>2.356605942361838</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.354694629410119</v>
+        <v>1.354694629410005</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3665761139399848</v>
+        <v>0.366576113939999</v>
       </c>
       <c r="E7">
         <v>2.218075557604749</v>
       </c>
       <c r="F7">
-        <v>6.795381769336188</v>
+        <v>6.795381769336132</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1428012004715242</v>
+        <v>0.1428012004715224</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.309808963168834</v>
+        <v>2.309808963168848</v>
       </c>
       <c r="L7">
-        <v>2.492619596062724</v>
+        <v>2.492619596062738</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.659451225733079</v>
+        <v>1.659451225733363</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0.4839466770252443</v>
       </c>
       <c r="E8">
-        <v>2.788132703965431</v>
+        <v>2.788132703965502</v>
       </c>
       <c r="F8">
-        <v>8.811427157515766</v>
+        <v>8.81142715751588</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.1066694420475169</v>
+        <v>0.1066694420475063</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.922362162452828</v>
+        <v>2.922362162452799</v>
       </c>
       <c r="L8">
         <v>3.124355010213321</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.299652008376029</v>
+        <v>2.299652008376142</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.8044552977530088</v>
+        <v>0.8044552977530657</v>
       </c>
       <c r="E9">
         <v>4.171480966443426</v>
       </c>
       <c r="F9">
-        <v>14.10681415486113</v>
+        <v>14.10681415486135</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.06116945368205506</v>
+        <v>0.06116945368204796</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>4.390752120172664</v>
       </c>
       <c r="L9">
-        <v>4.589288033617208</v>
+        <v>4.589288033617237</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E10">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F10">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L10">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E11">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F11">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L11">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E12">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F12">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L12">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E13">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F13">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L13">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E14">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F14">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L14">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E15">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F15">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L15">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E16">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F16">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L16">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E17">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F17">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L17">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E18">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F18">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L18">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E19">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F19">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L19">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E20">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F20">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L20">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E21">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F21">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L21">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E22">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F22">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L22">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E23">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F23">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L23">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E24">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F24">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L24">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.852692673585352</v>
+        <v>2.852692673585636</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.242661931702116</v>
+        <v>1.242661931702145</v>
       </c>
       <c r="E25">
-        <v>5.823703369486822</v>
+        <v>5.82370336948685</v>
       </c>
       <c r="F25">
-        <v>20.94512709425186</v>
+        <v>20.9451270942518</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.06065405685547631</v>
+        <v>0.06065405685546565</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.048924545663425</v>
+        <v>6.048924545663397</v>
       </c>
       <c r="L25">
-        <v>6.150148453509871</v>
+        <v>6.150148453509829</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.744029384203685</v>
+        <v>1.73805078793805</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5198629899229843</v>
+        <v>0.5064117940966071</v>
       </c>
       <c r="E2">
-        <v>2.954297489271994</v>
+        <v>2.895361425401873</v>
       </c>
       <c r="F2">
-        <v>9.419183470601695</v>
+        <v>9.253231320856685</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006160639166540447</v>
       </c>
       <c r="H2">
-        <v>0.09829654373939967</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1027144125946613</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.100566923676865</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.305911894820028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>3.062452197722223</v>
+      </c>
+      <c r="M2">
+        <v>3.273881277155226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.501207060729428</v>
+        <v>1.496353306183806</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4207878862557948</v>
+        <v>0.4109216134460212</v>
       </c>
       <c r="E3">
-        <v>2.486978635198511</v>
+        <v>2.43742430687098</v>
       </c>
       <c r="F3">
-        <v>7.732562009569762</v>
+        <v>7.611792051968649</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006454424761470027</v>
       </c>
       <c r="H3">
-        <v>0.1242496591548594</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1294458176785245</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.598870679694357</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.792204871601712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2.568950877181578</v>
+      </c>
+      <c r="M3">
+        <v>2.766989463049882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.355489245187016</v>
+        <v>1.351246340350116</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3668598043743287</v>
+        <v>0.3589313708738189</v>
       </c>
       <c r="E4">
-        <v>2.21951064247861</v>
+        <v>2.174852029510006</v>
       </c>
       <c r="F4">
-        <v>6.800314716128554</v>
+        <v>6.703598372786473</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006629338407236141</v>
       </c>
       <c r="H4">
-        <v>0.1426945321428352</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1483502631409461</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.311351485027146</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2.494225231606833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>2.285761256878402</v>
+      </c>
+      <c r="M4">
+        <v>2.47261794926392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.29674163215185</v>
+        <v>1.29273470349554</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.346177480640236</v>
+        <v>0.3389960327971409</v>
       </c>
       <c r="E5">
-        <v>2.114055863608044</v>
+        <v>2.071249219400826</v>
       </c>
       <c r="F5">
-        <v>6.439850085464911</v>
+        <v>6.352331317943822</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006699861992549353</v>
       </c>
       <c r="H5">
-        <v>0.1507629100858807</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1566037575912329</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.198019035250113</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.376057007332662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>2.174077301990081</v>
+      </c>
+      <c r="M5">
+        <v>2.355825053994621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.287019730030181</v>
+        <v>1.283051352669872</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3428111283659092</v>
+        <v>0.3357516348738159</v>
       </c>
       <c r="E6">
-        <v>2.096728011939916</v>
+        <v>2.054221806752608</v>
       </c>
       <c r="F6">
-        <v>6.381017134399912</v>
+        <v>6.294995923314133</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006711541203871236</v>
       </c>
       <c r="H6">
-        <v>0.1521340475467134</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1580055556553361</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.179400920987021</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2.356605942361838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>2.155727202494731</v>
+      </c>
+      <c r="M6">
+        <v>2.336597675657899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.354694629410005</v>
+        <v>1.350454952380346</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.366576113939999</v>
+        <v>0.3586579039489237</v>
       </c>
       <c r="E7">
-        <v>2.218075557604749</v>
+        <v>2.173442426326616</v>
       </c>
       <c r="F7">
-        <v>6.795381769336132</v>
+        <v>6.698791592996457</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006630291895537951</v>
       </c>
       <c r="H7">
-        <v>0.1428012004715224</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1484594342862096</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.309808963168848</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2.492619596062738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>2.284241375711858</v>
+      </c>
+      <c r="M7">
+        <v>2.471031196805399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.659451225733363</v>
+        <v>1.65388259358366</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4839466770252443</v>
+        <v>0.4718045119837484</v>
       </c>
       <c r="E8">
-        <v>2.788132703965502</v>
+        <v>2.732669028631733</v>
       </c>
       <c r="F8">
-        <v>8.81142715751588</v>
+        <v>8.66207101934188</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006263521781931882</v>
       </c>
       <c r="H8">
-        <v>0.1066694420475063</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1113613291339188</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.922362162452799</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3.124355010213321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>2.88726609956926</v>
+      </c>
+      <c r="M8">
+        <v>3.094832839635032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.299652008376142</v>
+        <v>2.290104713886137</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.8044552977530657</v>
+        <v>0.7795194161350594</v>
       </c>
       <c r="E9">
-        <v>4.171480966443426</v>
+        <v>4.080158307382192</v>
       </c>
       <c r="F9">
-        <v>14.10681415486135</v>
+        <v>13.79133096921129</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005452005620022016</v>
       </c>
       <c r="H9">
-        <v>0.06116945368204796</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.06358468933802897</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.390752120172664</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4.589288033617237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>4.325115744731363</v>
+      </c>
+      <c r="M9">
+        <v>4.534465628959268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E10">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F10">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H10">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M10">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E11">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F11">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H11">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M11">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E12">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F12">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H12">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M12">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E13">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F13">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H13">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M13">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E14">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F14">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H14">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M14">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E15">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F15">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H15">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M15">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E16">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F16">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H16">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M16">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E17">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F17">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H17">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M17">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E18">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F18">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H18">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M18">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E19">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F19">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H19">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M19">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E20">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F20">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H20">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M20">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E21">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F21">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H21">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M21">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E22">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F22">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H22">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M22">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E23">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F23">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H23">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M23">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E24">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F24">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H24">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.150148453509829</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M24">
+        <v>6.03178272410014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.852692673585636</v>
+        <v>2.833775295350961</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.242661931702145</v>
+        <v>1.187420917256787</v>
       </c>
       <c r="E25">
-        <v>5.82370336948685</v>
+        <v>5.637777662656987</v>
       </c>
       <c r="F25">
-        <v>20.9451270942518</v>
+        <v>20.21779819347324</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0004610096987650971</v>
       </c>
       <c r="H25">
-        <v>0.06065405685546565</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0595684412795805</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.048924545663397</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.150148453509829</v>
+        <v>5.906189996725715</v>
+      </c>
+      <c r="M25">
+        <v>6.03178272410014</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.73805078793805</v>
+        <v>0.2742147376975339</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5064117940966071</v>
+        <v>0.1200344646137523</v>
       </c>
       <c r="E2">
-        <v>2.895361425401873</v>
+        <v>1.673709230001094</v>
       </c>
       <c r="F2">
-        <v>9.253231320856685</v>
+        <v>4.271927522814167</v>
       </c>
       <c r="G2">
-        <v>0.0006160639166540447</v>
+        <v>0.0006774773939828617</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1027144125946613</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5.653201454449999</v>
       </c>
       <c r="L2">
-        <v>3.062452197722223</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.273881277155226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.8766293917261834</v>
+      </c>
+      <c r="O2">
+        <v>3.601412860043041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.496353306183806</v>
+        <v>0.2395553711772749</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4109216134460212</v>
+        <v>0.09926769437115013</v>
       </c>
       <c r="E3">
-        <v>2.43742430687098</v>
+        <v>1.402654537917115</v>
       </c>
       <c r="F3">
-        <v>7.611792051968649</v>
+        <v>3.60984629170045</v>
       </c>
       <c r="G3">
-        <v>0.0006454424761470027</v>
+        <v>0.0006940698365758374</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1294458176785245</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4.828327268194528</v>
       </c>
       <c r="L3">
-        <v>2.568950877181578</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.766989463049882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.8738629221424645</v>
+      </c>
+      <c r="O3">
+        <v>3.039890560351509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.351246340350116</v>
+        <v>0.2184662967895292</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3589313708738189</v>
+        <v>0.0875764988594554</v>
       </c>
       <c r="E4">
-        <v>2.174852029510006</v>
+        <v>1.245870467399882</v>
       </c>
       <c r="F4">
-        <v>6.703598372786473</v>
+        <v>3.226391510856331</v>
       </c>
       <c r="G4">
-        <v>0.0006629338407236141</v>
+        <v>0.0007042395167825588</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1483502631409461</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4.33820965332518</v>
       </c>
       <c r="L4">
-        <v>2.285761256878402</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2.47261794926392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.8733545777722895</v>
+      </c>
+      <c r="O4">
+        <v>2.715194787344117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.29273470349554</v>
+        <v>0.2099144891705151</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3389960327971409</v>
+        <v>0.0830262965323314</v>
       </c>
       <c r="E5">
-        <v>2.071249219400826</v>
+        <v>1.183894472378356</v>
       </c>
       <c r="F5">
-        <v>6.352331317943822</v>
+        <v>3.074840024503004</v>
       </c>
       <c r="G5">
-        <v>0.0006699861992549353</v>
+        <v>0.000708393685130721</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1566037575912329</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>4.141728178095264</v>
       </c>
       <c r="L5">
-        <v>2.174077301990081</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2.355825053994621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.8734403908904085</v>
+      </c>
+      <c r="O5">
+        <v>2.586975934382338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.283051352669872</v>
+        <v>0.208496849983419</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3357516348738159</v>
+        <v>0.08228234223314956</v>
       </c>
       <c r="E6">
-        <v>2.054221806752608</v>
+        <v>1.173706215396791</v>
       </c>
       <c r="F6">
-        <v>6.294995923314133</v>
+        <v>3.04993159182095</v>
       </c>
       <c r="G6">
-        <v>0.0006711541203871236</v>
+        <v>0.0007090844520358878</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1580055556553361</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>4.109276479704988</v>
       </c>
       <c r="L6">
-        <v>2.155727202494731</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.336597675657899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.8734721445580789</v>
+      </c>
+      <c r="O6">
+        <v>2.565908448477487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.350454952380346</v>
+        <v>0.2183508009384241</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3586579039489237</v>
+        <v>0.08751432773814827</v>
       </c>
       <c r="E7">
-        <v>2.173442426326616</v>
+        <v>1.245027477948014</v>
       </c>
       <c r="F7">
-        <v>6.698791592996457</v>
+        <v>3.22432985105246</v>
       </c>
       <c r="G7">
-        <v>0.0006630291895537951</v>
+        <v>0.0007042954840079663</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1484594342862096</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>4.335547715129138</v>
       </c>
       <c r="L7">
-        <v>2.284241375711858</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2.471031196805399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.8733545574333874</v>
+      </c>
+      <c r="O7">
+        <v>2.713450114414172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.65388259358366</v>
+        <v>0.2622204279578284</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4718045119837484</v>
+        <v>0.1126186981665285</v>
       </c>
       <c r="E8">
-        <v>2.732669028631733</v>
+        <v>1.577901209997918</v>
       </c>
       <c r="F8">
-        <v>8.66207101934188</v>
+        <v>4.038122897438342</v>
       </c>
       <c r="G8">
-        <v>0.0006263521781931882</v>
+        <v>0.0006832119798643648</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1113613291339188</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>5.364805984790593</v>
       </c>
       <c r="L8">
-        <v>2.88726609956926</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>3.094832839635032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.8754247888805082</v>
+      </c>
+      <c r="O8">
+        <v>3.40299287166016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.290104713886137</v>
+        <v>0.3501005874550032</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.7795194161350594</v>
+        <v>0.1734765873309669</v>
       </c>
       <c r="E9">
-        <v>4.080158307382192</v>
+        <v>2.338944372008044</v>
       </c>
       <c r="F9">
-        <v>13.79133096921129</v>
+        <v>5.882501180517778</v>
       </c>
       <c r="G9">
-        <v>0.0005452005620022016</v>
+        <v>0.0006408477655724078</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.06358468933802897</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>7.565437394874863</v>
       </c>
       <c r="L9">
-        <v>4.325115744731363</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>4.534465628959268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.8891678044369513</v>
+      </c>
+      <c r="O9">
+        <v>4.97181492836458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.833775295350961</v>
+        <v>0.4163782268534106</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.187420917256787</v>
+        <v>0.2320932888064533</v>
       </c>
       <c r="E10">
-        <v>5.637777662656987</v>
+        <v>3.032554071929226</v>
       </c>
       <c r="F10">
-        <v>20.21779819347324</v>
+        <v>7.523600378312324</v>
       </c>
       <c r="G10">
-        <v>0.0004610096987650971</v>
+        <v>0.0006072889581920961</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>9.401789386046772</v>
       </c>
       <c r="L10">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.9052858442547631</v>
+      </c>
+      <c r="O10">
+        <v>6.374394474070641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.833775295350961</v>
+        <v>0.4470899327612869</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.187420917256787</v>
+        <v>0.2645868245315341</v>
       </c>
       <c r="E11">
-        <v>5.637777662656987</v>
+        <v>3.406247753146687</v>
       </c>
       <c r="F11">
-        <v>20.21779819347324</v>
+        <v>8.385597735268931</v>
       </c>
       <c r="G11">
-        <v>0.0004610096987650971</v>
+        <v>0.0005907667466564652</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10.32814900318203</v>
       </c>
       <c r="L11">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.9137953555826783</v>
+      </c>
+      <c r="O11">
+        <v>7.113600572487087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.833775295350961</v>
+        <v>0.458824437788337</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.187420917256787</v>
+        <v>0.2781658120152173</v>
       </c>
       <c r="E12">
-        <v>5.637777662656987</v>
+        <v>3.560730285726891</v>
       </c>
       <c r="F12">
-        <v>20.21779819347324</v>
+        <v>8.736640680628767</v>
       </c>
       <c r="G12">
-        <v>0.0004610096987650971</v>
+        <v>0.0005842188597151826</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>10.69857256529218</v>
       </c>
       <c r="L12">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.9171475613901805</v>
+      </c>
+      <c r="O12">
+        <v>7.41513733528393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.833775295350961</v>
+        <v>0.4562920376514086</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.187420917256787</v>
+        <v>0.2751743910183535</v>
       </c>
       <c r="E13">
-        <v>5.637777662656987</v>
+        <v>3.526772682095057</v>
       </c>
       <c r="F13">
-        <v>20.21779819347324</v>
+        <v>8.659756690015683</v>
       </c>
       <c r="G13">
-        <v>0.0004610096987650971</v>
+        <v>0.0005856445970897192</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.61777027201461</v>
       </c>
       <c r="L13">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.9164209687598941</v>
+      </c>
+      <c r="O13">
+        <v>7.349070983303676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.833775295350961</v>
+        <v>0.4480530615459628</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.187420917256787</v>
+        <v>0.2656748711570458</v>
       </c>
       <c r="E14">
-        <v>5.637777662656987</v>
+        <v>3.418658970257795</v>
       </c>
       <c r="F14">
-        <v>20.21779819347324</v>
+        <v>8.413920249961421</v>
       </c>
       <c r="G14">
-        <v>0.0004610096987650971</v>
+        <v>0.0005902347817336433</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10.35817773473968</v>
       </c>
       <c r="L14">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.9140689307068044</v>
+      </c>
+      <c r="O14">
+        <v>7.137918062174236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.833775295350961</v>
+        <v>0.4430209818543176</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.187420917256787</v>
+        <v>0.2600399629118897</v>
       </c>
       <c r="E15">
-        <v>5.637777662656987</v>
+        <v>3.354316573211733</v>
       </c>
       <c r="F15">
-        <v>20.21779819347324</v>
+        <v>8.266868762412429</v>
       </c>
       <c r="G15">
-        <v>0.0004610096987650971</v>
+        <v>0.0005930039757746171</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.20199127372686</v>
       </c>
       <c r="L15">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.9126432286639385</v>
+      </c>
+      <c r="O15">
+        <v>7.011681363946821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.833775295350961</v>
+        <v>0.414384253281014</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.187420917256787</v>
+        <v>0.2301184503115223</v>
       </c>
       <c r="E16">
-        <v>5.637777662656987</v>
+        <v>3.009632024755035</v>
       </c>
       <c r="F16">
-        <v>20.21779819347324</v>
+        <v>7.470172701188602</v>
       </c>
       <c r="G16">
-        <v>0.0004610096987650971</v>
+        <v>0.0006083354388597645</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9.343555418915201</v>
       </c>
       <c r="L16">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.9047509296177765</v>
+      </c>
+      <c r="O16">
+        <v>6.328634392083899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.833775295350961</v>
+        <v>0.3969743789960063</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.187420917256787</v>
+        <v>0.2134908647715719</v>
       </c>
       <c r="E17">
-        <v>5.637777662656987</v>
+        <v>2.815534626390104</v>
       </c>
       <c r="F17">
-        <v>20.21779819347324</v>
+        <v>7.015388749493297</v>
       </c>
       <c r="G17">
-        <v>0.0004610096987650971</v>
+        <v>0.0006173588262949833</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>8.843814591105144</v>
       </c>
       <c r="L17">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.9001938463506178</v>
+      </c>
+      <c r="O17">
+        <v>5.939384708187504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.833775295350961</v>
+        <v>0.3870117093673855</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.187420917256787</v>
+        <v>0.2044399764887999</v>
       </c>
       <c r="E18">
-        <v>5.637777662656987</v>
+        <v>2.708989942675146</v>
       </c>
       <c r="F18">
-        <v>20.21779819347324</v>
+        <v>6.7640246439463</v>
       </c>
       <c r="G18">
-        <v>0.0004610096987650971</v>
+        <v>0.0006224396221671924</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>8.564409124666355</v>
       </c>
       <c r="L18">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.8976872362674584</v>
+      </c>
+      <c r="O18">
+        <v>5.724446387890112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.833775295350961</v>
+        <v>0.383646714515379</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.187420917256787</v>
+        <v>0.2014541922139301</v>
       </c>
       <c r="E19">
-        <v>5.637777662656987</v>
+        <v>2.673693141452802</v>
       </c>
       <c r="F19">
-        <v>20.21779819347324</v>
+        <v>6.680495621445459</v>
       </c>
       <c r="G19">
-        <v>0.0004610096987650971</v>
+        <v>0.0006241435431882381</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>8.471043622834998</v>
       </c>
       <c r="L19">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.8968588312746135</v>
+      </c>
+      <c r="O19">
+        <v>5.65305390584254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.833775295350961</v>
+        <v>0.3988222679761577</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.187420917256787</v>
+        <v>0.2152054720073409</v>
       </c>
       <c r="E20">
-        <v>5.637777662656987</v>
+        <v>2.835644839516746</v>
       </c>
       <c r="F20">
-        <v>20.21779819347324</v>
+        <v>7.06270011143269</v>
       </c>
       <c r="G20">
-        <v>0.0004610096987650971</v>
+        <v>0.0006164101763728926</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>8.896145830424672</v>
       </c>
       <c r="L20">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.9006672693820548</v>
+      </c>
+      <c r="O20">
+        <v>5.979856311491346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.833775295350961</v>
+        <v>0.4504699596888742</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.187420917256787</v>
+        <v>0.2684255624952812</v>
       </c>
       <c r="E21">
-        <v>5.637777662656987</v>
+        <v>3.450009391801885</v>
       </c>
       <c r="F21">
-        <v>20.21779819347324</v>
+        <v>8.485370301923581</v>
       </c>
       <c r="G21">
-        <v>0.0004610096987650971</v>
+        <v>0.0005888956857069251</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>10.43382007409164</v>
       </c>
       <c r="L21">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.9147567994805144</v>
+      </c>
+      <c r="O21">
+        <v>7.199272930521033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.833775295350961</v>
+        <v>0.4848564791621754</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.187420917256787</v>
+        <v>0.3111180637948365</v>
       </c>
       <c r="E22">
-        <v>5.637777662656987</v>
+        <v>3.932398137381483</v>
       </c>
       <c r="F22">
-        <v>20.21779819347324</v>
+        <v>9.567250067406178</v>
       </c>
       <c r="G22">
-        <v>0.0004610096987650971</v>
+        <v>0.0005690956533266764</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>11.5602335603547</v>
       </c>
       <c r="L22">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.92465928930487</v>
+      </c>
+      <c r="O22">
+        <v>8.129786271691216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.833775295350961</v>
+        <v>0.4664343997421696</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.187420917256787</v>
+        <v>0.2873696604572444</v>
       </c>
       <c r="E23">
-        <v>5.637777662656987</v>
+        <v>3.664963730927383</v>
       </c>
       <c r="F23">
-        <v>20.21779819347324</v>
+        <v>8.971623604217285</v>
       </c>
       <c r="G23">
-        <v>0.0004610096987650971</v>
+        <v>0.0005798894227752402</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>10.94441591052376</v>
       </c>
       <c r="L23">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.9193385754221737</v>
+      </c>
+      <c r="O23">
+        <v>7.617145478512157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.833775295350961</v>
+        <v>0.3979866941526069</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.187420917256787</v>
+        <v>0.2144287422397042</v>
       </c>
       <c r="E24">
-        <v>5.637777662656987</v>
+        <v>2.826537594293512</v>
       </c>
       <c r="F24">
-        <v>20.21779819347324</v>
+        <v>7.041279716198176</v>
       </c>
       <c r="G24">
-        <v>0.0004610096987650971</v>
+        <v>0.0006168393867575835</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>8.872462689013759</v>
       </c>
       <c r="L24">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>6.03178272410014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.9004528796488245</v>
+      </c>
+      <c r="O24">
+        <v>5.961532004510303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.833775295350961</v>
+        <v>0.3260761474660967</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.187420917256787</v>
+        <v>0.1552210270634617</v>
       </c>
       <c r="E25">
-        <v>5.637777662656987</v>
+        <v>2.116037415976109</v>
       </c>
       <c r="F25">
-        <v>20.21779819347324</v>
+        <v>5.34594590261031</v>
       </c>
       <c r="G25">
-        <v>0.0004610096987650971</v>
+        <v>0.000652564947857736</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.0595684412795805</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>6.941763565011428</v>
       </c>
       <c r="L25">
-        <v>5.906189996725715</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>6.03178272410014</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.8843858344611988</v>
+      </c>
+      <c r="O25">
+        <v>4.514591433019405</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2742147376975339</v>
+        <v>0.3359247610162726</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1200344646137523</v>
+        <v>0.06129944915587515</v>
       </c>
       <c r="E2">
-        <v>1.673709230001094</v>
+        <v>1.42481264898133</v>
       </c>
       <c r="F2">
-        <v>4.271927522814167</v>
+        <v>0.3203293125291395</v>
       </c>
       <c r="G2">
-        <v>0.0006774773939828617</v>
+        <v>0.2168426274287327</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1732529705978791</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1765624534764019</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.653201454449999</v>
+        <v>2.778547761687321</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8766293917261834</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.601412860043041</v>
+        <v>0.7738861669812991</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2395553711772749</v>
+        <v>0.2924979148745024</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09926769437115013</v>
+        <v>0.05381108744293073</v>
       </c>
       <c r="E3">
-        <v>1.402654537917115</v>
+        <v>1.224580378786342</v>
       </c>
       <c r="F3">
-        <v>3.60984629170045</v>
+        <v>0.2929131589384326</v>
       </c>
       <c r="G3">
-        <v>0.0006940698365758374</v>
+        <v>0.1975462600625875</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1705855867148856</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1882333401569145</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.828327268194528</v>
+        <v>2.441987173999536</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8738629221424645</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.039890560351509</v>
+        <v>0.7270085821244123</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2184662967895292</v>
+        <v>0.265822146356399</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0875764988594554</v>
+        <v>0.04920285570693039</v>
       </c>
       <c r="E4">
-        <v>1.245870467399882</v>
+        <v>1.103730437993121</v>
       </c>
       <c r="F4">
-        <v>3.226391510856331</v>
+        <v>0.2769890639425299</v>
       </c>
       <c r="G4">
-        <v>0.0007042395167825588</v>
+        <v>0.1865448014065336</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1694687818319167</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1959515022019787</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.33820965332518</v>
+        <v>2.235257900877883</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8733545777722895</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.715194787344117</v>
+        <v>0.7011020151185505</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2099144891705151</v>
+        <v>0.2549462659585942</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0830262965323314</v>
+        <v>0.04732206686392715</v>
       </c>
       <c r="E5">
-        <v>1.183894472378356</v>
+        <v>1.05493032602169</v>
       </c>
       <c r="F5">
-        <v>3.074840024503004</v>
+        <v>0.2707120898969038</v>
       </c>
       <c r="G5">
-        <v>0.000708393685130721</v>
+        <v>0.1822580629007007</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.169137487676025</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.199231246677801</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.141728178095264</v>
+        <v>2.150969328643157</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8734403908904085</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.586975934382338</v>
+        <v>0.6912182597311158</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.208496849983419</v>
+        <v>0.2531399482360968</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08228234223314956</v>
+        <v>0.04700958019269308</v>
       </c>
       <c r="E6">
-        <v>1.173706215396791</v>
+        <v>1.046851917993308</v>
       </c>
       <c r="F6">
-        <v>3.04993159182095</v>
+        <v>0.2696821566820375</v>
       </c>
       <c r="G6">
-        <v>0.0007090844520358878</v>
+        <v>0.1815576556912717</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1690897521897696</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1997838484430154</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.109276479704988</v>
+        <v>2.136969891056566</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8734721445580789</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.565908448477487</v>
+        <v>0.6896163356833114</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2183508009384241</v>
+        <v>0.2656754948822595</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08751432773814827</v>
+        <v>0.0491775028329684</v>
       </c>
       <c r="E7">
-        <v>1.245027477948014</v>
+        <v>1.103070591994964</v>
       </c>
       <c r="F7">
-        <v>3.22432985105246</v>
+        <v>0.2769035722943016</v>
       </c>
       <c r="G7">
-        <v>0.0007042954840079663</v>
+        <v>0.1864862145751118</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1694638217675291</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1959951948380194</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.335547715129138</v>
+        <v>2.234121367959688</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8733545574333874</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.713450114414172</v>
+        <v>0.7009660567017164</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2622204279578284</v>
+        <v>0.3209520665124188</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1126186981665285</v>
+        <v>0.05871942214170645</v>
       </c>
       <c r="E8">
-        <v>1.577901209997918</v>
+        <v>1.355288330110909</v>
       </c>
       <c r="F8">
-        <v>4.038122897438342</v>
+        <v>0.3106772214876727</v>
       </c>
       <c r="G8">
-        <v>0.0006832119798643648</v>
+        <v>0.2100033268110622</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1722206644120234</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1804693070672503</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.364805984790593</v>
+        <v>2.662502650940496</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8754247888805082</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>3.40299287166016</v>
+        <v>0.7570947748717742</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3501005874550032</v>
+        <v>0.4293798196821825</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1734765873309669</v>
+        <v>0.07736448385494299</v>
       </c>
       <c r="E9">
-        <v>2.338944372008044</v>
+        <v>1.870444250920542</v>
       </c>
       <c r="F9">
-        <v>5.882501180517778</v>
+        <v>0.3849207566718036</v>
       </c>
       <c r="G9">
-        <v>0.0006408477655724078</v>
+        <v>0.2636327260073088</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1821079729981392</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1546085400564952</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.565437394874863</v>
+        <v>3.503182306678923</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8891678044369513</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>4.97181492836458</v>
+        <v>0.8924007014792892</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4163782268534106</v>
+        <v>0.5092505998318302</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2320932888064533</v>
+        <v>0.09104722611586169</v>
       </c>
       <c r="E10">
-        <v>3.032554071929226</v>
+        <v>2.267601575760224</v>
       </c>
       <c r="F10">
-        <v>7.523600378312324</v>
+        <v>0.4455485860818129</v>
       </c>
       <c r="G10">
-        <v>0.0006072889581920961</v>
+        <v>0.308809278816625</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1926255223328184</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1387023132646181</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.401789386046772</v>
+        <v>4.123189441909005</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9052858442547631</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>6.374394474070641</v>
+        <v>1.010823307980672</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4470899327612869</v>
+        <v>0.5456776467917734</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2645868245315341</v>
+        <v>0.09727459187884335</v>
       </c>
       <c r="E11">
-        <v>3.406247753146687</v>
+        <v>2.45390313333732</v>
       </c>
       <c r="F11">
-        <v>8.385597735268931</v>
+        <v>0.4747415964441615</v>
       </c>
       <c r="G11">
-        <v>0.0005907667466564652</v>
+        <v>0.3309076785899663</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.1982441518480584</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1322085609089889</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.32814900318203</v>
+        <v>4.40625446310213</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9137953555826783</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>7.113600572487087</v>
+        <v>1.069712718581286</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.458824437788337</v>
+        <v>0.5594890890540114</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2781658120152173</v>
+        <v>0.09963370208080846</v>
       </c>
       <c r="E12">
-        <v>3.560730285726891</v>
+        <v>2.525410496544453</v>
       </c>
       <c r="F12">
-        <v>8.736640680628767</v>
+        <v>0.486054882882307</v>
       </c>
       <c r="G12">
-        <v>0.0005842188597151826</v>
+        <v>0.3395252048130573</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.200503477458625</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1298626269809535</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.69857256529218</v>
+        <v>4.513635438277618</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9171475613901805</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>7.41513733528393</v>
+        <v>1.092815970356781</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4562920376514086</v>
+        <v>0.5565137128580204</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2751743910183535</v>
+        <v>0.09912557499443153</v>
       </c>
       <c r="E13">
-        <v>3.526772682095057</v>
+        <v>2.509964878157675</v>
       </c>
       <c r="F13">
-        <v>8.659756690015683</v>
+        <v>0.4836064170521865</v>
       </c>
       <c r="G13">
-        <v>0.0005856445970897192</v>
+        <v>0.337657722264737</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2000108366052018</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1303627285773086</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.61777027201461</v>
+        <v>4.490499811940481</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9164209687598941</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>7.349070983303676</v>
+        <v>1.087803173274551</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4480530615459628</v>
+        <v>0.5468135522085618</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2656748711570458</v>
+        <v>0.09746865533703897</v>
       </c>
       <c r="E14">
-        <v>3.418658970257795</v>
+        <v>2.459765946264866</v>
       </c>
       <c r="F14">
-        <v>8.413920249961421</v>
+        <v>0.4756670052333334</v>
       </c>
       <c r="G14">
-        <v>0.0005902347817336433</v>
+        <v>0.3316114877290488</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1984273179407978</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1320132543890491</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.35817773473968</v>
+        <v>4.41508467844352</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9140689307068044</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>7.137918062174236</v>
+        <v>1.071596847409467</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4430209818543176</v>
+        <v>0.5408742984372168</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2600399629118897</v>
+        <v>0.09645388276263844</v>
       </c>
       <c r="E15">
-        <v>3.354316573211733</v>
+        <v>2.429147285395217</v>
       </c>
       <c r="F15">
-        <v>8.266868762412429</v>
+        <v>0.4708383838292889</v>
       </c>
       <c r="G15">
-        <v>0.0005930039757746171</v>
+        <v>0.3279413056769585</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1974748813203746</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1330391767931651</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.20199127372686</v>
+        <v>4.368916899722763</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9126432286639385</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>7.011681363946821</v>
+        <v>1.061777142190266</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.414384253281014</v>
+        <v>0.506872210793091</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2301184503115223</v>
+        <v>0.09064035619504551</v>
       </c>
       <c r="E16">
-        <v>3.009632024755035</v>
+        <v>2.255551996596893</v>
       </c>
       <c r="F16">
-        <v>7.470172701188602</v>
+        <v>0.4436754306516519</v>
       </c>
       <c r="G16">
-        <v>0.0006083354388597645</v>
+        <v>0.3073984705603721</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1922760944926836</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1391421647645057</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.343555418915201</v>
+        <v>4.104714641782948</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9047509296177765</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>6.328634392083899</v>
+        <v>1.00708252257175</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3969743789960063</v>
+        <v>0.4860396198561432</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2134908647715719</v>
+        <v>0.0870750655876904</v>
       </c>
       <c r="E17">
-        <v>2.815534626390104</v>
+        <v>2.150599925739797</v>
       </c>
       <c r="F17">
-        <v>7.015388749493297</v>
+        <v>0.4274431551001427</v>
       </c>
       <c r="G17">
-        <v>0.0006173588262949833</v>
+        <v>0.2952107436452138</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1893084588602818</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1430806296895408</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.843814591105144</v>
+        <v>3.942926164661458</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9001938463506178</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>5.939384708187504</v>
+        <v>0.9748701050928901</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3870117093673855</v>
+        <v>0.4740658081658182</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2044399764887999</v>
+        <v>0.08502465561542749</v>
       </c>
       <c r="E18">
-        <v>2.708989942675146</v>
+        <v>2.090754502270599</v>
       </c>
       <c r="F18">
-        <v>6.7640246439463</v>
+        <v>0.4182568879379502</v>
       </c>
       <c r="G18">
-        <v>0.0006224396221671924</v>
+        <v>0.2883445837546503</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1876793043026908</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1454153694814515</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.564409124666355</v>
+        <v>3.849962912467959</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8976872362674584</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>5.724446387890112</v>
+        <v>0.9568094256696611</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.383646714515379</v>
+        <v>0.4700130356436176</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2014541922139301</v>
+        <v>0.08433045040352027</v>
       </c>
       <c r="E19">
-        <v>2.673693141452802</v>
+        <v>2.07057697523706</v>
       </c>
       <c r="F19">
-        <v>6.680495621445459</v>
+        <v>0.4151715859735461</v>
       </c>
       <c r="G19">
-        <v>0.0006241435431882381</v>
+        <v>0.2860437570854089</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1871407144894022</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1462176105165174</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.471043622834998</v>
+        <v>3.818501903637696</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8968588312746135</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>5.65305390584254</v>
+        <v>0.9507722451724305</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3988222679761577</v>
+        <v>0.4882563734187357</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2152054720073409</v>
+        <v>0.087454567363622</v>
       </c>
       <c r="E20">
-        <v>2.835644839516746</v>
+        <v>2.161717389811798</v>
       </c>
       <c r="F20">
-        <v>7.06270011143269</v>
+        <v>0.4291553880472705</v>
       </c>
       <c r="G20">
-        <v>0.0006164101763728926</v>
+        <v>0.2964930685853631</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1896162403098316</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1426541417396283</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.896145830424672</v>
+        <v>3.960138876696533</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9006672693820548</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>5.979856311491346</v>
+        <v>0.9782502676662261</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4504699596888742</v>
+        <v>0.5496622222709391</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2684255624952812</v>
+        <v>0.09795530295473043</v>
       </c>
       <c r="E21">
-        <v>3.450009391801885</v>
+        <v>2.474483280646965</v>
       </c>
       <c r="F21">
-        <v>8.485370301923581</v>
+        <v>0.4779917627935646</v>
       </c>
       <c r="G21">
-        <v>0.0005888956857069251</v>
+        <v>0.3333804198413048</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1988887633055185</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1315253319780734</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.43382007409164</v>
+        <v>4.437230393384993</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9147567994805144</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>7.199272930521033</v>
+        <v>1.076334554464609</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4848564791621754</v>
+        <v>0.5898974216555075</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3111180637948365</v>
+        <v>0.1048239018183637</v>
       </c>
       <c r="E22">
-        <v>3.932398137381483</v>
+        <v>2.68456702808399</v>
       </c>
       <c r="F22">
-        <v>9.567250067406178</v>
+        <v>0.5114301848853486</v>
       </c>
       <c r="G22">
-        <v>0.0005690956533266764</v>
+        <v>0.3589561315726968</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2057226392382745</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1249145962516192</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.5602335603547</v>
+        <v>4.750170709465579</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.92465928930487</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>8.129786271691216</v>
+        <v>1.145162971462838</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4664343997421696</v>
+        <v>0.5684123562668333</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2873696604572444</v>
+        <v>0.1011572936919833</v>
       </c>
       <c r="E23">
-        <v>3.664963730927383</v>
+        <v>2.571867966535748</v>
       </c>
       <c r="F23">
-        <v>8.971623604217285</v>
+        <v>0.4934348688365588</v>
       </c>
       <c r="G23">
-        <v>0.0005798894227752402</v>
+        <v>0.3451620543454794</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2020003059401176</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1283800108043653</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.94441591052376</v>
+        <v>4.583029220721414</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9193385754221737</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>7.617145478512157</v>
+        <v>1.107966668996738</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3979866941526069</v>
+        <v>0.4872541696966266</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2144287422397042</v>
+        <v>0.08728299675689755</v>
       </c>
       <c r="E24">
-        <v>2.826537594293512</v>
+        <v>2.156689659989382</v>
       </c>
       <c r="F24">
-        <v>7.041279716198176</v>
+        <v>0.4283808351134439</v>
       </c>
       <c r="G24">
-        <v>0.0006168393867575835</v>
+        <v>0.2959128931452142</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1894768534179434</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1428467379414915</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.872462689013759</v>
+        <v>3.952356853664298</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9004528796488245</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>5.961532004510303</v>
+        <v>0.976720673582264</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3260761474660967</v>
+        <v>0.4000251974224796</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1552210270634617</v>
+        <v>0.07232519736708554</v>
       </c>
       <c r="E25">
-        <v>2.116037415976109</v>
+        <v>1.728286401968859</v>
       </c>
       <c r="F25">
-        <v>5.34594590261031</v>
+        <v>0.3638602042539247</v>
       </c>
       <c r="G25">
-        <v>0.000652564947857736</v>
+        <v>0.2482027442168757</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1789021560489772</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1610839851347485</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.941763565011428</v>
+        <v>3.275496117207751</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8843858344611988</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>4.514591433019405</v>
+        <v>0.8527381878658673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3359247610162726</v>
+        <v>0.1230997642205836</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06129944915587515</v>
+        <v>0.02024965061229267</v>
       </c>
       <c r="E2">
-        <v>1.42481264898133</v>
+        <v>0.4246523451747066</v>
       </c>
       <c r="F2">
-        <v>0.3203293125291395</v>
+        <v>0.3812909462845866</v>
       </c>
       <c r="G2">
-        <v>0.2168426274287327</v>
+        <v>0.2327342981425176</v>
       </c>
       <c r="H2">
-        <v>0.1732529705978791</v>
+        <v>0.4012823701756574</v>
       </c>
       <c r="I2">
-        <v>0.1765624534764019</v>
+        <v>0.3595752720144993</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.778547761687321</v>
+        <v>0.88416834969604</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7738861669812991</v>
+        <v>1.182574226925311</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2924979148745024</v>
+        <v>0.1090946938934252</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05381108744293073</v>
+        <v>0.0177731365342666</v>
       </c>
       <c r="E3">
-        <v>1.224580378786342</v>
+        <v>0.3704713352441757</v>
       </c>
       <c r="F3">
-        <v>0.2929131589384326</v>
+        <v>0.3790747268770076</v>
       </c>
       <c r="G3">
-        <v>0.1975462600625875</v>
+        <v>0.2316442115419974</v>
       </c>
       <c r="H3">
-        <v>0.1705855867148856</v>
+        <v>0.4047570462664893</v>
       </c>
       <c r="I3">
-        <v>0.1882333401569145</v>
+        <v>0.3658923434216614</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.441987173999536</v>
+        <v>0.775112570019445</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7270085821244123</v>
+        <v>1.187268892890259</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.265822146356399</v>
+        <v>0.1004821413835799</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04920285570693039</v>
+        <v>0.01624512838375836</v>
       </c>
       <c r="E4">
-        <v>1.103730437993121</v>
+        <v>0.3372853010806125</v>
       </c>
       <c r="F4">
-        <v>0.2769890639425299</v>
+        <v>0.3780659973587746</v>
       </c>
       <c r="G4">
-        <v>0.1865448014065336</v>
+        <v>0.2312525546235094</v>
       </c>
       <c r="H4">
-        <v>0.1694687818319167</v>
+        <v>0.4071490205321879</v>
       </c>
       <c r="I4">
-        <v>0.1959515022019787</v>
+        <v>0.3700330356078361</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.235257900877883</v>
+        <v>0.7078420932071481</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7011020151185505</v>
+        <v>1.19127207758352</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2549462659585942</v>
+        <v>0.09696937143516493</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04732206686392715</v>
+        <v>0.01562063408052694</v>
       </c>
       <c r="E5">
-        <v>1.05493032602169</v>
+        <v>0.3237805993375389</v>
       </c>
       <c r="F5">
-        <v>0.2707120898969038</v>
+        <v>0.3777432050851033</v>
       </c>
       <c r="G5">
-        <v>0.1822580629007007</v>
+        <v>0.2311624152696723</v>
       </c>
       <c r="H5">
-        <v>0.169137487676025</v>
+        <v>0.4081886927399623</v>
       </c>
       <c r="I5">
-        <v>0.199231246677801</v>
+        <v>0.3717862655556115</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.150969328643157</v>
+        <v>0.6803526643384998</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6912182597311158</v>
+        <v>1.19318427154235</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2531399482360968</v>
+        <v>0.09638590062394314</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04700958019269308</v>
+        <v>0.01551682882309535</v>
       </c>
       <c r="E6">
-        <v>1.046851917993308</v>
+        <v>0.3215392481842372</v>
       </c>
       <c r="F6">
-        <v>0.2696821566820375</v>
+        <v>0.3776949298473369</v>
       </c>
       <c r="G6">
-        <v>0.1815576556912717</v>
+        <v>0.2311516327252576</v>
       </c>
       <c r="H6">
-        <v>0.1690897521897696</v>
+        <v>0.4083652483613562</v>
       </c>
       <c r="I6">
-        <v>0.1997838484430154</v>
+        <v>0.372081365702094</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.136969891056566</v>
+        <v>0.6757835168507142</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6896163356833114</v>
+        <v>1.193518726125575</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2656754948822595</v>
+        <v>0.1004347790566555</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0491775028329684</v>
+        <v>0.0162367135361805</v>
       </c>
       <c r="E7">
-        <v>1.103070591994964</v>
+        <v>0.3371030975839915</v>
       </c>
       <c r="F7">
-        <v>0.2769035722943016</v>
+        <v>0.3780612869869202</v>
       </c>
       <c r="G7">
-        <v>0.1864862145751118</v>
+        <v>0.2312510581882918</v>
       </c>
       <c r="H7">
-        <v>0.1694638217675291</v>
+        <v>0.4071627791519745</v>
       </c>
       <c r="I7">
-        <v>0.1959951948380194</v>
+        <v>0.3700564136159947</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.234121367959688</v>
+        <v>0.7074716672278498</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7009660567017164</v>
+        <v>1.191296730132791</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3209520665124188</v>
+        <v>0.118273756886893</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05871942214170645</v>
+        <v>0.01939731557582292</v>
       </c>
       <c r="E8">
-        <v>1.355288330110909</v>
+        <v>0.4059528901139942</v>
       </c>
       <c r="F8">
-        <v>0.3106772214876727</v>
+        <v>0.3804535761673122</v>
       </c>
       <c r="G8">
-        <v>0.2100033268110622</v>
+        <v>0.2323005925383654</v>
       </c>
       <c r="H8">
-        <v>0.1722206644120234</v>
+        <v>0.4024267359521971</v>
       </c>
       <c r="I8">
-        <v>0.1804693070672503</v>
+        <v>0.3616990151581891</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.662502650940496</v>
+        <v>0.8466312182547711</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7570947748717742</v>
+        <v>1.183959796000195</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4293798196821825</v>
+        <v>0.1531391710722119</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07736448385494299</v>
+        <v>0.02553461656236777</v>
       </c>
       <c r="E9">
-        <v>1.870444250920542</v>
+        <v>0.5416896561627595</v>
       </c>
       <c r="F9">
-        <v>0.3849207566718036</v>
+        <v>0.3879502977075191</v>
       </c>
       <c r="G9">
-        <v>0.2636327260073088</v>
+        <v>0.2365784196250118</v>
       </c>
       <c r="H9">
-        <v>0.1821079729981392</v>
+        <v>0.3951943351990863</v>
       </c>
       <c r="I9">
-        <v>0.1546085400564952</v>
+        <v>0.347389442638832</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.503182306678923</v>
+        <v>1.117001462872111</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8924007014792892</v>
+        <v>1.178507294025081</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5092505998318302</v>
+        <v>0.1786719350272961</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09104722611586169</v>
+        <v>0.03000478290307029</v>
       </c>
       <c r="E10">
-        <v>2.267601575760224</v>
+        <v>0.6419719615983155</v>
       </c>
       <c r="F10">
-        <v>0.4455485860818129</v>
+        <v>0.3951866138249613</v>
       </c>
       <c r="G10">
-        <v>0.308809278816625</v>
+        <v>0.2410982246578612</v>
       </c>
       <c r="H10">
-        <v>0.1926255223328184</v>
+        <v>0.391138963364952</v>
       </c>
       <c r="I10">
-        <v>0.1387023132646181</v>
+        <v>0.3381443602223602</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.123189441909005</v>
+        <v>1.314039766974247</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.010823307980672</v>
+        <v>1.180010670235703</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5456776467917734</v>
+        <v>0.190267163993866</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09727459187884335</v>
+        <v>0.03202954505057676</v>
       </c>
       <c r="E11">
-        <v>2.45390313333732</v>
+        <v>0.6877394825874035</v>
       </c>
       <c r="F11">
-        <v>0.4747415964441615</v>
+        <v>0.3988579138360535</v>
       </c>
       <c r="G11">
-        <v>0.3309076785899663</v>
+        <v>0.2434585171801587</v>
       </c>
       <c r="H11">
-        <v>0.1982441518480584</v>
+        <v>0.3895685057546387</v>
       </c>
       <c r="I11">
-        <v>0.1322085609089889</v>
+        <v>0.3342140455841918</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.40625446310213</v>
+        <v>1.403316990293831</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.069712718581286</v>
+        <v>1.181904415458348</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5594890890540114</v>
+        <v>0.1946548893815532</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09963370208080846</v>
+        <v>0.03279497180017188</v>
       </c>
       <c r="E12">
-        <v>2.525410496544453</v>
+        <v>0.705093716841219</v>
       </c>
       <c r="F12">
-        <v>0.486054882882307</v>
+        <v>0.4003030012269591</v>
       </c>
       <c r="G12">
-        <v>0.3395252048130573</v>
+        <v>0.244396443664499</v>
       </c>
       <c r="H12">
-        <v>0.200503477458625</v>
+        <v>0.3890133639814479</v>
       </c>
       <c r="I12">
-        <v>0.1298626269809535</v>
+        <v>0.3327653509999244</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.513635438277618</v>
+        <v>1.437071223920839</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.092815970356781</v>
+        <v>1.182796563015984</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5565137128580204</v>
+        <v>0.1937100583815834</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09912557499443153</v>
+        <v>0.03263018236597759</v>
       </c>
       <c r="E13">
-        <v>2.509964878157675</v>
+        <v>0.7013551188518363</v>
       </c>
       <c r="F13">
-        <v>0.4836064170521865</v>
+        <v>0.3999893320782206</v>
       </c>
       <c r="G13">
-        <v>0.337657722264737</v>
+        <v>0.2441924752962308</v>
       </c>
       <c r="H13">
-        <v>0.2000108366052018</v>
+        <v>0.3891311627340741</v>
       </c>
       <c r="I13">
-        <v>0.1303627285773086</v>
+        <v>0.333075590091763</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.490499811940481</v>
+        <v>1.429804037311442</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.087803173274551</v>
+        <v>1.182596621929463</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5468135522085618</v>
+        <v>0.190628209342151</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09746865533703897</v>
+        <v>0.03209254364512049</v>
       </c>
       <c r="E14">
-        <v>2.459765946264866</v>
+        <v>0.6891667537940407</v>
       </c>
       <c r="F14">
-        <v>0.4756670052333334</v>
+        <v>0.3989757012565107</v>
       </c>
       <c r="G14">
-        <v>0.3316114877290488</v>
+        <v>0.2435347941948578</v>
       </c>
       <c r="H14">
-        <v>0.1984273179407978</v>
+        <v>0.3895220405338762</v>
       </c>
       <c r="I14">
-        <v>0.1320132543890491</v>
+        <v>0.3340940661290208</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.41508467844352</v>
+        <v>1.406095046427993</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.071596847409467</v>
+        <v>1.181974299138687</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5408742984372168</v>
+        <v>0.1887400706548306</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09645388276263844</v>
+        <v>0.03176305274766378</v>
       </c>
       <c r="E15">
-        <v>2.429147285395217</v>
+        <v>0.681704082994699</v>
       </c>
       <c r="F15">
-        <v>0.4708383838292889</v>
+        <v>0.398361973928921</v>
       </c>
       <c r="G15">
-        <v>0.3279413056769585</v>
+        <v>0.2431377047662977</v>
       </c>
       <c r="H15">
-        <v>0.1974748813203746</v>
+        <v>0.3897666190138125</v>
       </c>
       <c r="I15">
-        <v>0.1330391767931651</v>
+        <v>0.3347230743323024</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.368916899722763</v>
+        <v>1.391565633331027</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.061777142190266</v>
+        <v>1.181615933418442</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.506872210793091</v>
+        <v>0.1779137367371106</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09064035619504551</v>
+        <v>0.02987227979672724</v>
       </c>
       <c r="E16">
-        <v>2.255551996596893</v>
+        <v>0.6389840815519392</v>
       </c>
       <c r="F16">
-        <v>0.4436754306516519</v>
+        <v>0.3949543454033915</v>
       </c>
       <c r="G16">
-        <v>0.3073984705603721</v>
+        <v>0.2409501288131253</v>
       </c>
       <c r="H16">
-        <v>0.1922760944926836</v>
+        <v>0.3912471260837549</v>
       </c>
       <c r="I16">
-        <v>0.1391421647645057</v>
+        <v>0.3384067590308657</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.104714641782948</v>
+        <v>1.308197958481003</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.00708252257175</v>
+        <v>1.179911344773103</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4860396198561432</v>
+        <v>0.1712668612308335</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0870750655876904</v>
+        <v>0.02871007785428503</v>
       </c>
       <c r="E17">
-        <v>2.150599925739797</v>
+        <v>0.6128160081837564</v>
       </c>
       <c r="F17">
-        <v>0.4274431551001427</v>
+        <v>0.3929612643221816</v>
       </c>
       <c r="G17">
-        <v>0.2952107436452138</v>
+        <v>0.239686314887507</v>
       </c>
       <c r="H17">
-        <v>0.1893084588602818</v>
+        <v>0.3922257117930172</v>
       </c>
       <c r="I17">
-        <v>0.1430806296895408</v>
+        <v>0.340737124174197</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.942926164661458</v>
+        <v>1.256961963586207</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9748701050928901</v>
+        <v>1.179176255433617</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4740658081658182</v>
+        <v>0.1674419125052964</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08502465561542749</v>
+        <v>0.02804079046050134</v>
       </c>
       <c r="E18">
-        <v>2.090754502270599</v>
+        <v>0.5977787087748823</v>
       </c>
       <c r="F18">
-        <v>0.4182568879379502</v>
+        <v>0.3918505970294319</v>
       </c>
       <c r="G18">
-        <v>0.2883445837546503</v>
+        <v>0.2389880129893243</v>
       </c>
       <c r="H18">
-        <v>0.1876793043026908</v>
+        <v>0.3928143853470942</v>
       </c>
       <c r="I18">
-        <v>0.1454153694814515</v>
+        <v>0.3421034005364039</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.849962912467959</v>
+        <v>1.227458929715567</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9568094256696611</v>
+        <v>1.178867265532801</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4700130356436176</v>
+        <v>0.1661465433096652</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08433045040352027</v>
+        <v>0.02781404201774507</v>
       </c>
       <c r="E19">
-        <v>2.07057697523706</v>
+        <v>0.5926896706506284</v>
       </c>
       <c r="F19">
-        <v>0.4151715859735461</v>
+        <v>0.3914806671985787</v>
       </c>
       <c r="G19">
-        <v>0.2860437570854089</v>
+        <v>0.2387564819562158</v>
       </c>
       <c r="H19">
-        <v>0.1871407144894022</v>
+        <v>0.393018130989546</v>
       </c>
       <c r="I19">
-        <v>0.1462176105165174</v>
+        <v>0.342570447450159</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.818501903637696</v>
+        <v>1.21746402182589</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9507722451724305</v>
+        <v>1.178782162490052</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4882563734187357</v>
+        <v>0.1719746252361176</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.087454567363622</v>
+        <v>0.02883388142192445</v>
       </c>
       <c r="E20">
-        <v>2.161717389811798</v>
+        <v>0.6156001950492822</v>
       </c>
       <c r="F20">
-        <v>0.4291553880472705</v>
+        <v>0.3931697343393239</v>
       </c>
       <c r="G20">
-        <v>0.2964930685853631</v>
+        <v>0.2398178861381126</v>
       </c>
       <c r="H20">
-        <v>0.1896162403098316</v>
+        <v>0.3921188669560536</v>
       </c>
       <c r="I20">
-        <v>0.1426541417396283</v>
+        <v>0.3404863707505736</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.960138876696533</v>
+        <v>1.262419597566634</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9782502676662261</v>
+        <v>1.179242719995671</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5496622222709391</v>
+        <v>0.1915335105714746</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09795530295473043</v>
+        <v>0.03225049703200966</v>
       </c>
       <c r="E21">
-        <v>2.474483280646965</v>
+        <v>0.6927461324072794</v>
       </c>
       <c r="F21">
-        <v>0.4779917627935646</v>
+        <v>0.3992719384775256</v>
       </c>
       <c r="G21">
-        <v>0.3333804198413048</v>
+        <v>0.2437267701617571</v>
       </c>
       <c r="H21">
-        <v>0.1988887633055185</v>
+        <v>0.3894061558596604</v>
       </c>
       <c r="I21">
-        <v>0.1315253319780734</v>
+        <v>0.3337938391542128</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.437230393384993</v>
+        <v>1.413060407922387</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.076334554464609</v>
+        <v>1.182152331848584</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5898974216555075</v>
+        <v>0.2042979569592376</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1048239018183637</v>
+        <v>0.03447581315928971</v>
       </c>
       <c r="E22">
-        <v>2.68456702808399</v>
+        <v>0.7433007152722411</v>
       </c>
       <c r="F22">
-        <v>0.5114301848853486</v>
+        <v>0.4035798939727187</v>
       </c>
       <c r="G22">
-        <v>0.3589561315726968</v>
+        <v>0.2465388847464567</v>
       </c>
       <c r="H22">
-        <v>0.2057226392382745</v>
+        <v>0.3878638566172867</v>
       </c>
       <c r="I22">
-        <v>0.1249145962516192</v>
+        <v>0.3296508974429972</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.750170709465579</v>
+        <v>1.511202452081193</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.145162971462838</v>
+        <v>1.185074613273827</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5684123562668333</v>
+        <v>0.1974871139285028</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1011572936919833</v>
+        <v>0.03328883556756068</v>
       </c>
       <c r="E23">
-        <v>2.571867966535748</v>
+        <v>0.7163058420107404</v>
       </c>
       <c r="F23">
-        <v>0.4934348688365588</v>
+        <v>0.4012513020224802</v>
       </c>
       <c r="G23">
-        <v>0.3451620543454794</v>
+        <v>0.2450143223953916</v>
       </c>
       <c r="H23">
-        <v>0.2020003059401176</v>
+        <v>0.3886658747052536</v>
       </c>
       <c r="I23">
-        <v>0.1283800108043653</v>
+        <v>0.3318409122295076</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.583029220721414</v>
+        <v>1.458851208579006</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.107966668996738</v>
+        <v>1.183421196482868</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4872541696966266</v>
+        <v>0.1716546562324908</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08728299675689755</v>
+        <v>0.02877791331975033</v>
       </c>
       <c r="E24">
-        <v>2.156689659989382</v>
+        <v>0.6143414422907938</v>
       </c>
       <c r="F24">
-        <v>0.4283808351134439</v>
+        <v>0.3930753754756608</v>
       </c>
       <c r="G24">
-        <v>0.2959128931452142</v>
+        <v>0.2397583147086664</v>
       </c>
       <c r="H24">
-        <v>0.1894768534179434</v>
+        <v>0.3921670902999779</v>
       </c>
       <c r="I24">
-        <v>0.1428467379414915</v>
+        <v>0.3405996537733316</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.952356853664298</v>
+        <v>1.259952346817045</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.976720673582264</v>
+        <v>1.179212317509382</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4000251974224796</v>
+        <v>0.1437208677840545</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07232519736708554</v>
+        <v>0.02388100728190778</v>
       </c>
       <c r="E25">
-        <v>1.728286401968859</v>
+        <v>0.5048799663215533</v>
       </c>
       <c r="F25">
-        <v>0.3638602042539247</v>
+        <v>0.3856200105241641</v>
       </c>
       <c r="G25">
-        <v>0.2482027442168757</v>
+        <v>0.2351810699485952</v>
       </c>
       <c r="H25">
-        <v>0.1789021560489772</v>
+        <v>0.3969303251233995</v>
       </c>
       <c r="I25">
-        <v>0.1610839851347485</v>
+        <v>0.3510379051535288</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.275496117207751</v>
+        <v>1.044135908283323</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8527381878658673</v>
+        <v>1.179019338748134</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1230997642205836</v>
+        <v>0.3359247610162441</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02024965061229267</v>
+        <v>0.06129944915565488</v>
       </c>
       <c r="E2">
-        <v>0.4246523451747066</v>
+        <v>1.424812648981401</v>
       </c>
       <c r="F2">
-        <v>0.3812909462845866</v>
+        <v>0.3203293125291538</v>
       </c>
       <c r="G2">
-        <v>0.2327342981425176</v>
+        <v>0.2168426274288038</v>
       </c>
       <c r="H2">
-        <v>0.4012823701756574</v>
+        <v>0.173252970597872</v>
       </c>
       <c r="I2">
-        <v>0.3595752720144993</v>
+        <v>0.1765624534764019</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.88416834969604</v>
+        <v>2.778547761687435</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.182574226925311</v>
+        <v>0.7738861669812991</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1090946938934252</v>
+        <v>0.2924979148745166</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0177731365342666</v>
+        <v>0.05381108744307284</v>
       </c>
       <c r="E3">
-        <v>0.3704713352441757</v>
+        <v>1.224580378786357</v>
       </c>
       <c r="F3">
-        <v>0.3790747268770076</v>
+        <v>0.2929131589384468</v>
       </c>
       <c r="G3">
-        <v>0.2316442115419974</v>
+        <v>0.1975462600625164</v>
       </c>
       <c r="H3">
-        <v>0.4047570462664893</v>
+        <v>0.1705855867149992</v>
       </c>
       <c r="I3">
-        <v>0.3658923434216614</v>
+        <v>0.1882333401569127</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.775112570019445</v>
+        <v>2.441987173999678</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.187268892890259</v>
+        <v>0.7270085821243839</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1004821413835799</v>
+        <v>0.2658221463564416</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01624512838375836</v>
+        <v>0.04920285570712224</v>
       </c>
       <c r="E4">
-        <v>0.3372853010806125</v>
+        <v>1.103730437993178</v>
       </c>
       <c r="F4">
-        <v>0.3780659973587746</v>
+        <v>0.2769890639425299</v>
       </c>
       <c r="G4">
-        <v>0.2312525546235094</v>
+        <v>0.1865448014065265</v>
       </c>
       <c r="H4">
-        <v>0.4071490205321879</v>
+        <v>0.1694687818319167</v>
       </c>
       <c r="I4">
-        <v>0.3700330356078361</v>
+        <v>0.1959515022019911</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7078420932071481</v>
+        <v>2.23525790087777</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.19127207758352</v>
+        <v>0.7011020151185363</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09696937143516493</v>
+        <v>0.2549462659584805</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01562063408052694</v>
+        <v>0.04732206686393425</v>
       </c>
       <c r="E5">
-        <v>0.3237805993375389</v>
+        <v>1.054930326021633</v>
       </c>
       <c r="F5">
-        <v>0.3777432050851033</v>
+        <v>0.270712089896918</v>
       </c>
       <c r="G5">
-        <v>0.2311624152696723</v>
+        <v>0.1822580629006438</v>
       </c>
       <c r="H5">
-        <v>0.4081886927399623</v>
+        <v>0.169137487676025</v>
       </c>
       <c r="I5">
-        <v>0.3717862655556115</v>
+        <v>0.1992312466777815</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6803526643384998</v>
+        <v>2.150969328643214</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.19318427154235</v>
+        <v>0.6912182597311158</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09638590062394314</v>
+        <v>0.2531399482360968</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01551682882309535</v>
+        <v>0.04700958019270018</v>
       </c>
       <c r="E6">
-        <v>0.3215392481842372</v>
+        <v>1.046851917993308</v>
       </c>
       <c r="F6">
-        <v>0.3776949298473369</v>
+        <v>0.2696821566820091</v>
       </c>
       <c r="G6">
-        <v>0.2311516327252576</v>
+        <v>0.1815576556912788</v>
       </c>
       <c r="H6">
-        <v>0.4083652483613562</v>
+        <v>0.1690897521898904</v>
       </c>
       <c r="I6">
-        <v>0.372081365702094</v>
+        <v>0.199783848443019</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6757835168507142</v>
+        <v>2.136969891056538</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.193518726125575</v>
+        <v>0.6896163356833824</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1004347790566555</v>
+        <v>0.2656754948821458</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0162367135361805</v>
+        <v>0.04917750283286182</v>
       </c>
       <c r="E7">
-        <v>0.3371030975839915</v>
+        <v>1.103070591994936</v>
       </c>
       <c r="F7">
-        <v>0.3780612869869202</v>
+        <v>0.2769035722943229</v>
       </c>
       <c r="G7">
-        <v>0.2312510581882918</v>
+        <v>0.1864862145751616</v>
       </c>
       <c r="H7">
-        <v>0.4071627791519745</v>
+        <v>0.1694638217675006</v>
       </c>
       <c r="I7">
-        <v>0.3700564136159947</v>
+        <v>0.1959951948380141</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7074716672278498</v>
+        <v>2.234121367959744</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.191296730132791</v>
+        <v>0.7009660567017022</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.118273756886893</v>
+        <v>0.3209520665124188</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01939731557582292</v>
+        <v>0.05871942214179171</v>
       </c>
       <c r="E8">
-        <v>0.4059528901139942</v>
+        <v>1.355288330110852</v>
       </c>
       <c r="F8">
-        <v>0.3804535761673122</v>
+        <v>0.3106772214876514</v>
       </c>
       <c r="G8">
-        <v>0.2323005925383654</v>
+        <v>0.2100033268109911</v>
       </c>
       <c r="H8">
-        <v>0.4024267359521971</v>
+        <v>0.1722206644120163</v>
       </c>
       <c r="I8">
-        <v>0.3616990151581891</v>
+        <v>0.1804693070672503</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8466312182547711</v>
+        <v>2.662502650940468</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.183959796000195</v>
+        <v>0.7570947748717174</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1531391710722119</v>
+        <v>0.4293798196821825</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02553461656236777</v>
+        <v>0.07736448385505668</v>
       </c>
       <c r="E9">
-        <v>0.5416896561627595</v>
+        <v>1.870444250920514</v>
       </c>
       <c r="F9">
-        <v>0.3879502977075191</v>
+        <v>0.3849207566717965</v>
       </c>
       <c r="G9">
-        <v>0.2365784196250118</v>
+        <v>0.263632726007387</v>
       </c>
       <c r="H9">
-        <v>0.3951943351990863</v>
+        <v>0.1821079729982529</v>
       </c>
       <c r="I9">
-        <v>0.347389442638832</v>
+        <v>0.1546085400564952</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.117001462872111</v>
+        <v>3.503182306679037</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.178507294025081</v>
+        <v>0.8924007014792323</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1786719350272961</v>
+        <v>0.5092505998318586</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03000478290307029</v>
+        <v>0.09104722611603222</v>
       </c>
       <c r="E10">
-        <v>0.6419719615983155</v>
+        <v>2.267601575760239</v>
       </c>
       <c r="F10">
-        <v>0.3951866138249613</v>
+        <v>0.4455485860817845</v>
       </c>
       <c r="G10">
-        <v>0.2410982246578612</v>
+        <v>0.3088092788166108</v>
       </c>
       <c r="H10">
-        <v>0.391138963364952</v>
+        <v>0.1926255223329179</v>
       </c>
       <c r="I10">
-        <v>0.3381443602223602</v>
+        <v>0.1387023132645808</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.314039766974247</v>
+        <v>4.123189441909005</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.180010670235703</v>
+        <v>1.010823307980672</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.190267163993866</v>
+        <v>0.5456776467915745</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03202954505057676</v>
+        <v>0.09727459187872967</v>
       </c>
       <c r="E11">
-        <v>0.6877394825874035</v>
+        <v>2.453903133337349</v>
       </c>
       <c r="F11">
-        <v>0.3988579138360535</v>
+        <v>0.4747415964441402</v>
       </c>
       <c r="G11">
-        <v>0.2434585171801587</v>
+        <v>0.3309076785899663</v>
       </c>
       <c r="H11">
-        <v>0.3895685057546387</v>
+        <v>0.1982441518481721</v>
       </c>
       <c r="I11">
-        <v>0.3342140455841918</v>
+        <v>0.1322085609090209</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.403316990293831</v>
+        <v>4.406254463102243</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.181904415458348</v>
+        <v>1.069712718581201</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1946548893815532</v>
+        <v>0.5594890890538693</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03279497180017188</v>
+        <v>0.09963370208082267</v>
       </c>
       <c r="E12">
-        <v>0.705093716841219</v>
+        <v>2.525410496544453</v>
       </c>
       <c r="F12">
-        <v>0.4003030012269591</v>
+        <v>0.4860548828822999</v>
       </c>
       <c r="G12">
-        <v>0.244396443664499</v>
+        <v>0.3395252048130857</v>
       </c>
       <c r="H12">
-        <v>0.3890133639814479</v>
+        <v>0.2005034774586107</v>
       </c>
       <c r="I12">
-        <v>0.3327653509999244</v>
+        <v>0.1298626269809819</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.437071223920839</v>
+        <v>4.513635438277731</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.182796563015984</v>
+        <v>1.09281597035681</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1937100583815834</v>
+        <v>0.5565137128580204</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03263018236597759</v>
+        <v>0.0991255749943889</v>
       </c>
       <c r="E13">
-        <v>0.7013551188518363</v>
+        <v>2.509964878157703</v>
       </c>
       <c r="F13">
-        <v>0.3999893320782206</v>
+        <v>0.4836064170521652</v>
       </c>
       <c r="G13">
-        <v>0.2441924752962308</v>
+        <v>0.3376577222647796</v>
       </c>
       <c r="H13">
-        <v>0.3891311627340741</v>
+        <v>0.2000108366052018</v>
       </c>
       <c r="I13">
-        <v>0.333075590091763</v>
+        <v>0.1303627285773086</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.429804037311442</v>
+        <v>4.490499811940424</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.182596621929463</v>
+        <v>1.087803173274523</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.190628209342151</v>
+        <v>0.5468135522084481</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03209254364512049</v>
+        <v>0.09746865533703897</v>
       </c>
       <c r="E14">
-        <v>0.6891667537940407</v>
+        <v>2.459765946264881</v>
       </c>
       <c r="F14">
-        <v>0.3989757012565107</v>
+        <v>0.4756670052333405</v>
       </c>
       <c r="G14">
-        <v>0.2435347941948578</v>
+        <v>0.3316114877290914</v>
       </c>
       <c r="H14">
-        <v>0.3895220405338762</v>
+        <v>0.1984273179409257</v>
       </c>
       <c r="I14">
-        <v>0.3340940661290208</v>
+        <v>0.1320132543890473</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.406095046427993</v>
+        <v>4.41508467844352</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.181974299138687</v>
+        <v>1.071596847409552</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1887400706548306</v>
+        <v>0.5408742984372452</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03176305274766378</v>
+        <v>0.09645388276275213</v>
       </c>
       <c r="E15">
-        <v>0.681704082994699</v>
+        <v>2.429147285395231</v>
       </c>
       <c r="F15">
-        <v>0.398361973928921</v>
+        <v>0.4708383838292818</v>
       </c>
       <c r="G15">
-        <v>0.2431377047662977</v>
+        <v>0.32794130567693</v>
       </c>
       <c r="H15">
-        <v>0.3897666190138125</v>
+        <v>0.1974748813202467</v>
       </c>
       <c r="I15">
-        <v>0.3347230743323024</v>
+        <v>0.1330391767931669</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.391565633331027</v>
+        <v>4.368916899722706</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.181615933418442</v>
+        <v>1.061777142190209</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1779137367371106</v>
+        <v>0.506872210793091</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02987227979672724</v>
+        <v>0.09064035619513078</v>
       </c>
       <c r="E16">
-        <v>0.6389840815519392</v>
+        <v>2.255551996596907</v>
       </c>
       <c r="F16">
-        <v>0.3949543454033915</v>
+        <v>0.443675430651659</v>
       </c>
       <c r="G16">
-        <v>0.2409501288131253</v>
+        <v>0.307398470560301</v>
       </c>
       <c r="H16">
-        <v>0.3912471260837549</v>
+        <v>0.1922760944925699</v>
       </c>
       <c r="I16">
-        <v>0.3384067590308657</v>
+        <v>0.1391421647645075</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.308197958481003</v>
+        <v>4.104714641782891</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.179911344773103</v>
+        <v>1.007082522571778</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1712668612308335</v>
+        <v>0.4860396198561148</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02871007785428503</v>
+        <v>0.08707506558780409</v>
       </c>
       <c r="E17">
-        <v>0.6128160081837564</v>
+        <v>2.150599925739812</v>
       </c>
       <c r="F17">
-        <v>0.3929612643221816</v>
+        <v>0.4274431551001285</v>
       </c>
       <c r="G17">
-        <v>0.239686314887507</v>
+        <v>0.2952107436452991</v>
       </c>
       <c r="H17">
-        <v>0.3922257117930172</v>
+        <v>0.1893084588601681</v>
       </c>
       <c r="I17">
-        <v>0.340737124174197</v>
+        <v>0.1430806296895426</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.256961963586207</v>
+        <v>3.942926164661458</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.179176255433617</v>
+        <v>0.9748701050928616</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1674419125052964</v>
+        <v>0.4740658081659603</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02804079046050134</v>
+        <v>0.0850246556154417</v>
       </c>
       <c r="E18">
-        <v>0.5977787087748823</v>
+        <v>2.090754502270599</v>
       </c>
       <c r="F18">
-        <v>0.3918505970294319</v>
+        <v>0.4182568879379502</v>
       </c>
       <c r="G18">
-        <v>0.2389880129893243</v>
+        <v>0.2883445837545935</v>
       </c>
       <c r="H18">
-        <v>0.3928143853470942</v>
+        <v>0.1876793043028044</v>
       </c>
       <c r="I18">
-        <v>0.3421034005364039</v>
+        <v>0.1454153694814266</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.227458929715567</v>
+        <v>3.849962912468015</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.178867265532801</v>
+        <v>0.9568094256696895</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1661465433096652</v>
+        <v>0.4700130356435324</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02781404201774507</v>
+        <v>0.08433045040350606</v>
       </c>
       <c r="E19">
-        <v>0.5926896706506284</v>
+        <v>2.070576975237074</v>
       </c>
       <c r="F19">
-        <v>0.3914806671985787</v>
+        <v>0.4151715859735461</v>
       </c>
       <c r="G19">
-        <v>0.2387564819562158</v>
+        <v>0.2860437570853946</v>
       </c>
       <c r="H19">
-        <v>0.393018130989546</v>
+        <v>0.1871407144894022</v>
       </c>
       <c r="I19">
-        <v>0.342570447450159</v>
+        <v>0.1462176105165458</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.21746402182589</v>
+        <v>3.818501903637639</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.178782162490052</v>
+        <v>0.9507722451724305</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1719746252361176</v>
+        <v>0.4882563734187357</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02883388142192445</v>
+        <v>0.08745456736327384</v>
       </c>
       <c r="E20">
-        <v>0.6156001950492822</v>
+        <v>2.161717389811812</v>
       </c>
       <c r="F20">
-        <v>0.3931697343393239</v>
+        <v>0.4291553880472492</v>
       </c>
       <c r="G20">
-        <v>0.2398178861381126</v>
+        <v>0.2964930685852352</v>
       </c>
       <c r="H20">
-        <v>0.3921188669560536</v>
+        <v>0.1896162403098316</v>
       </c>
       <c r="I20">
-        <v>0.3404863707505736</v>
+        <v>0.142654141739623</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.262419597566634</v>
+        <v>3.960138876696647</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.179242719995671</v>
+        <v>0.9782502676663682</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1915335105714746</v>
+        <v>0.5496622222708538</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03225049703200966</v>
+        <v>0.09795530295475885</v>
       </c>
       <c r="E21">
-        <v>0.6927461324072794</v>
+        <v>2.474483280646936</v>
       </c>
       <c r="F21">
-        <v>0.3992719384775256</v>
+        <v>0.4779917627935788</v>
       </c>
       <c r="G21">
-        <v>0.2437267701617571</v>
+        <v>0.3333804198413191</v>
       </c>
       <c r="H21">
-        <v>0.3894061558596604</v>
+        <v>0.1988887633055327</v>
       </c>
       <c r="I21">
-        <v>0.3337938391542128</v>
+        <v>0.1315253319781</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.413060407922387</v>
+        <v>4.43723039338505</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.182152331848584</v>
+        <v>1.07633455446458</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2042979569592376</v>
+        <v>0.5898974216555359</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03447581315928971</v>
+        <v>0.1048239018184773</v>
       </c>
       <c r="E22">
-        <v>0.7433007152722411</v>
+        <v>2.684567028083961</v>
       </c>
       <c r="F22">
-        <v>0.4035798939727187</v>
+        <v>0.5114301848853628</v>
       </c>
       <c r="G22">
-        <v>0.2465388847464567</v>
+        <v>0.3589561315726542</v>
       </c>
       <c r="H22">
-        <v>0.3878638566172867</v>
+        <v>0.2057226392382887</v>
       </c>
       <c r="I22">
-        <v>0.3296508974429972</v>
+        <v>0.1249145962516458</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.511202452081193</v>
+        <v>4.750170709465579</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.185074613273827</v>
+        <v>1.145162971462867</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1974871139285028</v>
+        <v>0.5684123562668617</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03328883556756068</v>
+        <v>0.1011572936919407</v>
       </c>
       <c r="E23">
-        <v>0.7163058420107404</v>
+        <v>2.571867966535748</v>
       </c>
       <c r="F23">
-        <v>0.4012513020224802</v>
+        <v>0.4934348688365517</v>
       </c>
       <c r="G23">
-        <v>0.2450143223953916</v>
+        <v>0.3451620543455363</v>
       </c>
       <c r="H23">
-        <v>0.3886658747052536</v>
+        <v>0.2020003059402171</v>
       </c>
       <c r="I23">
-        <v>0.3318409122295076</v>
+        <v>0.1283800108043653</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.458851208579006</v>
+        <v>4.583029220721471</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.183421196482868</v>
+        <v>1.107966668996738</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1716546562324908</v>
+        <v>0.4872541696966408</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02877791331975033</v>
+        <v>0.08728299675690465</v>
       </c>
       <c r="E24">
-        <v>0.6143414422907938</v>
+        <v>2.156689659989368</v>
       </c>
       <c r="F24">
-        <v>0.3930753754756608</v>
+        <v>0.4283808351134368</v>
       </c>
       <c r="G24">
-        <v>0.2397583147086664</v>
+        <v>0.295912893145271</v>
       </c>
       <c r="H24">
-        <v>0.3921670902999779</v>
+        <v>0.1894768534179292</v>
       </c>
       <c r="I24">
-        <v>0.3405996537733316</v>
+        <v>0.1428467379414879</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.259952346817045</v>
+        <v>3.952356853664412</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.179212317509382</v>
+        <v>0.976720673582264</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1437208677840545</v>
+        <v>0.4000251974224938</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02388100728190778</v>
+        <v>0.07232519736697895</v>
       </c>
       <c r="E25">
-        <v>0.5048799663215533</v>
+        <v>1.728286401968845</v>
       </c>
       <c r="F25">
-        <v>0.3856200105241641</v>
+        <v>0.3638602042539105</v>
       </c>
       <c r="G25">
-        <v>0.2351810699485952</v>
+        <v>0.2482027442168544</v>
       </c>
       <c r="H25">
-        <v>0.3969303251233995</v>
+        <v>0.1789021560489701</v>
       </c>
       <c r="I25">
-        <v>0.3510379051535288</v>
+        <v>0.161083985134761</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.044135908283323</v>
+        <v>3.275496117207609</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.179019338748134</v>
+        <v>0.8527381878658247</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3359247610162441</v>
+        <v>0.257463097964532</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06129944915565488</v>
+        <v>0.0542464103497764</v>
       </c>
       <c r="E2">
-        <v>1.424812648981401</v>
+        <v>1.370482070515905</v>
       </c>
       <c r="F2">
-        <v>0.3203293125291538</v>
+        <v>0.4154920926790453</v>
       </c>
       <c r="G2">
-        <v>0.2168426274288038</v>
+        <v>0.3087818240933444</v>
       </c>
       <c r="H2">
-        <v>0.173252970597872</v>
+        <v>0.01300981890876352</v>
       </c>
       <c r="I2">
-        <v>0.1765624534764019</v>
+        <v>0.002514754006794462</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2402481991716172</v>
       </c>
       <c r="K2">
-        <v>2.778547761687435</v>
+        <v>0.2211169310015337</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.059257633578881</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7738861669812991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7769725187097123</v>
+      </c>
+      <c r="Q2">
+        <v>1.108083529420298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2924979148745166</v>
+        <v>0.2246422946948172</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05381108744307284</v>
+        <v>0.04772623219331962</v>
       </c>
       <c r="E3">
-        <v>1.224580378786357</v>
+        <v>1.197966391313443</v>
       </c>
       <c r="F3">
-        <v>0.2929131589384468</v>
+        <v>0.3795704651027947</v>
       </c>
       <c r="G3">
-        <v>0.1975462600625164</v>
+        <v>0.2815688872465572</v>
       </c>
       <c r="H3">
-        <v>0.1705855867149992</v>
+        <v>0.009819827637526472</v>
       </c>
       <c r="I3">
-        <v>0.1882333401569127</v>
+        <v>0.003111914995075793</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.231408937087572</v>
       </c>
       <c r="K3">
-        <v>2.441987173999678</v>
+        <v>0.2295725780981273</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.808619869206439</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7270085821243839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7849636033788201</v>
+      </c>
+      <c r="Q3">
+        <v>1.031608714190483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2658221463564416</v>
+        <v>0.2040570537338198</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04920285570712224</v>
+        <v>0.04371861471988581</v>
       </c>
       <c r="E4">
-        <v>1.103730437993178</v>
+        <v>1.092174280855033</v>
       </c>
       <c r="F4">
-        <v>0.2769890639425299</v>
+        <v>0.3579506490399211</v>
       </c>
       <c r="G4">
-        <v>0.1865448014065265</v>
+        <v>0.2652102302030244</v>
       </c>
       <c r="H4">
-        <v>0.1694687818319167</v>
+        <v>0.008024639132514666</v>
       </c>
       <c r="I4">
-        <v>0.1959515022019911</v>
+        <v>0.003562419889844293</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2262223798667549</v>
       </c>
       <c r="K4">
-        <v>2.23525790087777</v>
+        <v>0.2349759201325325</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.655064555466225</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7011020151185363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7905566180360282</v>
+      </c>
+      <c r="Q4">
+        <v>0.9858919506271633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2549462659584805</v>
+        <v>0.1946335842596483</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04732206686393425</v>
+        <v>0.04210792929427498</v>
       </c>
       <c r="E5">
-        <v>1.054930326021633</v>
+        <v>1.049077603601745</v>
       </c>
       <c r="F5">
-        <v>0.270712089896918</v>
+        <v>0.3490508587573657</v>
       </c>
       <c r="G5">
-        <v>0.1822580629006438</v>
+        <v>0.2584315559824546</v>
       </c>
       <c r="H5">
-        <v>0.169137487676025</v>
+        <v>0.00733048593731056</v>
       </c>
       <c r="I5">
-        <v>0.1992312466777815</v>
+        <v>0.003843773184303068</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.224063624494562</v>
       </c>
       <c r="K5">
-        <v>2.150969328643214</v>
+        <v>0.2371742682415635</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.593976149966693</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6912182597311158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7933548980704117</v>
+      </c>
+      <c r="Q5">
+        <v>0.9669272895185941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2531399482360968</v>
+        <v>0.1919284626034283</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04700958019270018</v>
+        <v>0.04186954873117799</v>
       </c>
       <c r="E6">
-        <v>1.046851917993308</v>
+        <v>1.041918563126984</v>
       </c>
       <c r="F6">
-        <v>0.2696821566820091</v>
+        <v>0.3473450945487073</v>
       </c>
       <c r="G6">
-        <v>0.1815576556912788</v>
+        <v>0.2570743282931218</v>
       </c>
       <c r="H6">
-        <v>0.1690897521898904</v>
+        <v>0.007217076193929362</v>
       </c>
       <c r="I6">
-        <v>0.199783848443019</v>
+        <v>0.003993542624560753</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2235831241874067</v>
       </c>
       <c r="K6">
-        <v>2.136969891056538</v>
+        <v>0.2374767416804614</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.585573613655413</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6896163356833824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.79426255776022</v>
+      </c>
+      <c r="Q6">
+        <v>0.9630316031794166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2656754948821458</v>
+        <v>0.20081963461638</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04917750283286182</v>
+        <v>0.04377676005751141</v>
       </c>
       <c r="E7">
-        <v>1.103070591994936</v>
+        <v>1.091583697745293</v>
       </c>
       <c r="F7">
-        <v>0.2769035722943229</v>
+        <v>0.3571917630184203</v>
       </c>
       <c r="G7">
-        <v>0.1864862145751616</v>
+        <v>0.2644733137427409</v>
       </c>
       <c r="H7">
-        <v>0.1694638217675006</v>
+        <v>0.00801422351465364</v>
       </c>
       <c r="I7">
-        <v>0.1959951948380141</v>
+        <v>0.003829090547006864</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.225851144190294</v>
       </c>
       <c r="K7">
-        <v>2.234121367959744</v>
+        <v>0.2348301002603808</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.65899827890695</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7009660567017022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7917936234215901</v>
+      </c>
+      <c r="Q7">
+        <v>0.9835516697140463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3209520665124188</v>
+        <v>0.242084236955364</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05871942214179171</v>
+        <v>0.05210554360232322</v>
       </c>
       <c r="E8">
-        <v>1.355288330110852</v>
+        <v>1.310949284089858</v>
       </c>
       <c r="F8">
-        <v>0.3106772214876514</v>
+        <v>0.4021675757855263</v>
       </c>
       <c r="G8">
-        <v>0.2100033268109911</v>
+        <v>0.2984694518538262</v>
       </c>
       <c r="H8">
-        <v>0.1722206644120163</v>
+        <v>0.0118725835027263</v>
       </c>
       <c r="I8">
-        <v>0.1804693070672503</v>
+        <v>0.003022158072648828</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2366989035943803</v>
       </c>
       <c r="K8">
-        <v>2.662502650940468</v>
+        <v>0.2237835655132036</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.979110551777637</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7570947748717174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7812511105626854</v>
+      </c>
+      <c r="Q8">
+        <v>1.078696696250177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4293798196821825</v>
+        <v>0.32505905733764</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07736448385505668</v>
+        <v>0.06827520960280964</v>
       </c>
       <c r="E9">
-        <v>1.870444250920514</v>
+        <v>1.742979117355091</v>
       </c>
       <c r="F9">
-        <v>0.3849207566717965</v>
+        <v>0.4953525978759643</v>
       </c>
       <c r="G9">
-        <v>0.263632726007387</v>
+        <v>0.3694145425761803</v>
       </c>
       <c r="H9">
-        <v>0.1821079729982529</v>
+        <v>0.02089887043689531</v>
       </c>
       <c r="I9">
-        <v>0.1546085400564952</v>
+        <v>0.001729019170193524</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2606426267902293</v>
       </c>
       <c r="K9">
-        <v>3.503182306679037</v>
+        <v>0.2041139784359847</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.601706697224699</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8924007014792323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.7639710230374419</v>
+      </c>
+      <c r="Q9">
+        <v>1.279880431663628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5092505998318586</v>
+        <v>0.3830353841491245</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09104722611603222</v>
+        <v>0.0811748120849316</v>
       </c>
       <c r="E10">
-        <v>2.267601575760239</v>
+        <v>1.960242400157426</v>
       </c>
       <c r="F10">
-        <v>0.4455485860817845</v>
+        <v>0.5597584506818549</v>
       </c>
       <c r="G10">
-        <v>0.3088092788166108</v>
+        <v>0.4168937782110049</v>
       </c>
       <c r="H10">
-        <v>0.1926255223329179</v>
+        <v>0.02791974858045077</v>
       </c>
       <c r="I10">
-        <v>0.1387023132645808</v>
+        <v>0.001386126329657067</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2763143753045512</v>
       </c>
       <c r="K10">
-        <v>4.123189441909005</v>
+        <v>0.1907143159653577</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.048430592173332</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.010823307980672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.759434804733921</v>
+      </c>
+      <c r="Q10">
+        <v>1.413780911907878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5456776467915745</v>
+        <v>0.4122735639353579</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09727459187872967</v>
+        <v>0.09601697146820243</v>
       </c>
       <c r="E11">
-        <v>2.453903133337349</v>
+        <v>1.269092207456993</v>
       </c>
       <c r="F11">
-        <v>0.4747415964441402</v>
+        <v>0.5314327340949632</v>
       </c>
       <c r="G11">
-        <v>0.3309076785899663</v>
+        <v>0.3806791504036227</v>
       </c>
       <c r="H11">
-        <v>0.1982441518481721</v>
+        <v>0.04298614709841431</v>
       </c>
       <c r="I11">
-        <v>0.1322085609090209</v>
+        <v>0.001806032129336721</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.255515955363137</v>
       </c>
       <c r="K11">
-        <v>4.406254463102243</v>
+        <v>0.1850354780034595</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.117634972433365</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.069712718581201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7945478843004707</v>
+      </c>
+      <c r="Q11">
+        <v>1.293577415521042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5594890890538693</v>
+        <v>0.4304065867277842</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09963370208082267</v>
+        <v>0.1062336575264879</v>
       </c>
       <c r="E12">
-        <v>2.525410496544453</v>
+        <v>0.772260580107428</v>
       </c>
       <c r="F12">
-        <v>0.4860548828822999</v>
+        <v>0.4952574171301762</v>
       </c>
       <c r="G12">
-        <v>0.3395252048130857</v>
+        <v>0.3423808720182819</v>
       </c>
       <c r="H12">
-        <v>0.2005034774586107</v>
+        <v>0.07871157873649537</v>
       </c>
       <c r="I12">
-        <v>0.1298626269809819</v>
+        <v>0.0017753205872717</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2354775514269392</v>
       </c>
       <c r="K12">
-        <v>4.513635438277731</v>
+        <v>0.1834445775220006</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.073692180563171</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.09281597035681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.8247922893306026</v>
+      </c>
+      <c r="Q12">
+        <v>1.170452334576595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5565137128580204</v>
+        <v>0.4359885643770838</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0991255749943889</v>
+        <v>0.113484688393811</v>
       </c>
       <c r="E13">
-        <v>2.509964878157703</v>
+        <v>0.395998123353273</v>
       </c>
       <c r="F13">
-        <v>0.4836064170521652</v>
+        <v>0.4500498777536563</v>
       </c>
       <c r="G13">
-        <v>0.3376577222647796</v>
+        <v>0.2993878321384358</v>
       </c>
       <c r="H13">
-        <v>0.2000108366052018</v>
+        <v>0.1316413990087142</v>
       </c>
       <c r="I13">
-        <v>0.1303627285773086</v>
+        <v>0.001771818275740245</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2143535203355924</v>
       </c>
       <c r="K13">
-        <v>4.490499811940424</v>
+        <v>0.1845966922472977</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.94827562261807</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.087803173274523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.8543645270133737</v>
+      </c>
+      <c r="Q13">
+        <v>1.035029049673994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5468135522084481</v>
+        <v>0.4331928777297662</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09746865533703897</v>
+        <v>0.1172459180672405</v>
       </c>
       <c r="E14">
-        <v>2.459765946264881</v>
+        <v>0.2055366135989658</v>
       </c>
       <c r="F14">
-        <v>0.4756670052333405</v>
+        <v>0.4145402876316666</v>
       </c>
       <c r="G14">
-        <v>0.3316114877290914</v>
+        <v>0.2674968339503323</v>
       </c>
       <c r="H14">
-        <v>0.1984273179409257</v>
+        <v>0.1791769658262865</v>
       </c>
       <c r="I14">
-        <v>0.1320132543890473</v>
+        <v>0.001866808945123033</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1991736603320291</v>
       </c>
       <c r="K14">
-        <v>4.41508467844352</v>
+        <v>0.1866851726388168</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.82590964016731</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.071596847409552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.8752350134084281</v>
+      </c>
+      <c r="Q14">
+        <v>0.9355705210168423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5408742984372452</v>
+        <v>0.4283829766728786</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09645388276275213</v>
+        <v>0.117479911968374</v>
       </c>
       <c r="E15">
-        <v>2.429147285395231</v>
+        <v>0.1682240055515543</v>
       </c>
       <c r="F15">
-        <v>0.4708383838292818</v>
+        <v>0.4037756422816159</v>
       </c>
       <c r="G15">
-        <v>0.32794130567693</v>
+        <v>0.2584268390375115</v>
       </c>
       <c r="H15">
-        <v>0.1974748813202467</v>
+        <v>0.1910926281606606</v>
       </c>
       <c r="I15">
-        <v>0.1330391767931669</v>
+        <v>0.002017117133374491</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1951253167701736</v>
       </c>
       <c r="K15">
-        <v>4.368916899722706</v>
+        <v>0.1878030611110431</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.780848211171559</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.061777142190209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.8805952432856259</v>
+      </c>
+      <c r="Q15">
+        <v>0.9078323047494337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.506872210793091</v>
+        <v>0.4001689323618649</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09064035619513078</v>
+        <v>0.1101911224483985</v>
       </c>
       <c r="E16">
-        <v>2.255551996596907</v>
+        <v>0.1652027631474233</v>
       </c>
       <c r="F16">
-        <v>0.443675430651659</v>
+        <v>0.3855904847554683</v>
       </c>
       <c r="G16">
-        <v>0.307398470560301</v>
+        <v>0.2471839561745739</v>
       </c>
       <c r="H16">
-        <v>0.1922760944925699</v>
+        <v>0.1761961752730627</v>
       </c>
       <c r="I16">
-        <v>0.1391421647645075</v>
+        <v>0.002290032319959501</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1926986061726623</v>
       </c>
       <c r="K16">
-        <v>4.104714641782891</v>
+        <v>0.1928465875838423</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.620508907689441</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.007082522571778</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.8749759180782064</v>
+      </c>
+      <c r="Q16">
+        <v>0.8787420868883089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4860396198561148</v>
+        <v>0.3799203571222165</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08707506558780409</v>
+        <v>0.1026277411229159</v>
       </c>
       <c r="E17">
-        <v>2.150599925739812</v>
+        <v>0.2504662988207187</v>
       </c>
       <c r="F17">
-        <v>0.4274431551001285</v>
+        <v>0.390378378999003</v>
       </c>
       <c r="G17">
-        <v>0.2952107436452991</v>
+        <v>0.2552650389717357</v>
       </c>
       <c r="H17">
-        <v>0.1893084588601681</v>
+        <v>0.137642844795522</v>
       </c>
       <c r="I17">
-        <v>0.1430806296895426</v>
+        <v>0.002478265938826496</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1988500814788878</v>
       </c>
       <c r="K17">
-        <v>3.942926164661458</v>
+        <v>0.1956641074467393</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.562319995144463</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9748701050928616</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.8599661584552223</v>
+      </c>
+      <c r="Q17">
+        <v>0.9086544743277898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4740658081659603</v>
+        <v>0.3672378742383415</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0850246556154417</v>
+        <v>0.09408621952373863</v>
       </c>
       <c r="E18">
-        <v>2.090754502270599</v>
+        <v>0.4848615890570258</v>
       </c>
       <c r="F18">
-        <v>0.4182568879379502</v>
+        <v>0.4162088589090231</v>
       </c>
       <c r="G18">
-        <v>0.2883445837545935</v>
+        <v>0.282063524285995</v>
       </c>
       <c r="H18">
-        <v>0.1876793043028044</v>
+        <v>0.08560355182264345</v>
       </c>
       <c r="I18">
-        <v>0.1454153694814266</v>
+        <v>0.00230520631588238</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2135189461695575</v>
       </c>
       <c r="K18">
-        <v>3.849962912468015</v>
+        <v>0.1968819861002489</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.581608687473107</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9568094256696895</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.8342839731870129</v>
+      </c>
+      <c r="Q18">
+        <v>0.9961418755322313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4700130356435324</v>
+        <v>0.3555565670351513</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08433045040350606</v>
+        <v>0.08582316355594344</v>
       </c>
       <c r="E19">
-        <v>2.070576975237074</v>
+        <v>0.9202872841222671</v>
       </c>
       <c r="F19">
-        <v>0.4151715859735461</v>
+        <v>0.4569062121157259</v>
       </c>
       <c r="G19">
-        <v>0.2860437570853946</v>
+        <v>0.3224729930970227</v>
       </c>
       <c r="H19">
-        <v>0.1871407144894022</v>
+        <v>0.04315202952923158</v>
       </c>
       <c r="I19">
-        <v>0.1462176105165458</v>
+        <v>0.002411729139096153</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.233935757064188</v>
       </c>
       <c r="K19">
-        <v>3.818501903637639</v>
+        <v>0.1970941417655943</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.672123414896305</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9507722451724305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.8062192169830666</v>
+      </c>
+      <c r="Q19">
+        <v>1.124580465973281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4882563734187357</v>
+        <v>0.3581404203135605</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08745456736327384</v>
+        <v>0.07808042612076349</v>
       </c>
       <c r="E20">
-        <v>2.161717389811812</v>
+        <v>1.898799968616956</v>
       </c>
       <c r="F20">
-        <v>0.4291553880472492</v>
+        <v>0.5403955054846676</v>
       </c>
       <c r="G20">
-        <v>0.2964930685852352</v>
+        <v>0.4019900207814118</v>
       </c>
       <c r="H20">
-        <v>0.1896162403098316</v>
+        <v>0.02594600260796431</v>
       </c>
       <c r="I20">
-        <v>0.142654141739623</v>
+        <v>0.002267319863605621</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2709203627726708</v>
       </c>
       <c r="K20">
-        <v>3.960138876696647</v>
+        <v>0.1938785390190496</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.945479993350489</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9782502676663682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.7648969946928048</v>
+      </c>
+      <c r="Q20">
+        <v>1.370781081768115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5496622222708538</v>
+        <v>0.4024460952712587</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09795530295475885</v>
+        <v>0.08643874456451073</v>
       </c>
       <c r="E21">
-        <v>2.474483280646936</v>
+        <v>2.224867814249606</v>
       </c>
       <c r="F21">
-        <v>0.4779917627935788</v>
+        <v>0.6016186737511902</v>
       </c>
       <c r="G21">
-        <v>0.3333804198413191</v>
+        <v>0.4501890046345238</v>
       </c>
       <c r="H21">
-        <v>0.1988887633055327</v>
+        <v>0.03290286907933071</v>
       </c>
       <c r="I21">
-        <v>0.1315253319781</v>
+        <v>0.001974016835565529</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2887168720959039</v>
       </c>
       <c r="K21">
-        <v>4.43723039338505</v>
+        <v>0.1841065867322556</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.311793156197155</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.07633455446458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.7562385732754322</v>
+      </c>
+      <c r="Q21">
+        <v>1.510559408455947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5898974216555359</v>
+        <v>0.4354898644379546</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1048239018184773</v>
+        <v>0.09229594249290329</v>
       </c>
       <c r="E22">
-        <v>2.684567028083961</v>
+        <v>2.386687153391165</v>
       </c>
       <c r="F22">
-        <v>0.5114301848853628</v>
+        <v>0.6397890593350866</v>
       </c>
       <c r="G22">
-        <v>0.3589561315726542</v>
+        <v>0.4797043396183511</v>
       </c>
       <c r="H22">
-        <v>0.2057226392382887</v>
+        <v>0.03735185884485714</v>
       </c>
       <c r="I22">
-        <v>0.1249145962516458</v>
+        <v>0.001554881276029541</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2994793119824806</v>
       </c>
       <c r="K22">
-        <v>4.750170709465579</v>
+        <v>0.1780335032192699</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.53749315050959</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.145162971462867</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.7513699609221547</v>
+      </c>
+      <c r="Q22">
+        <v>1.59587305569994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5684123562668617</v>
+        <v>0.4216340181247062</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1011572936919407</v>
+        <v>0.0890718475202732</v>
       </c>
       <c r="E23">
-        <v>2.571867966535748</v>
+        <v>2.30024923658155</v>
       </c>
       <c r="F23">
-        <v>0.4934348688365517</v>
+        <v>0.6200909179549114</v>
       </c>
       <c r="G23">
-        <v>0.3451620543455363</v>
+        <v>0.4646433627987534</v>
       </c>
       <c r="H23">
-        <v>0.2020003059402171</v>
+        <v>0.03495138378759588</v>
       </c>
       <c r="I23">
-        <v>0.1283800108043653</v>
+        <v>0.001455183170841146</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2940939619173264</v>
       </c>
       <c r="K23">
-        <v>4.583029220721471</v>
+        <v>0.1813421590057676</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.41113947878523</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.107966668996738</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.7521907687346001</v>
+      </c>
+      <c r="Q23">
+        <v>1.552557555949136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4872541696966408</v>
+        <v>0.3623863674973222</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08728299675690465</v>
+        <v>0.07703056252653795</v>
       </c>
       <c r="E24">
-        <v>2.156689659989368</v>
+        <v>1.974497193023922</v>
       </c>
       <c r="F24">
-        <v>0.4283808351134368</v>
+        <v>0.5458018928896422</v>
       </c>
       <c r="G24">
-        <v>0.295912893145271</v>
+        <v>0.4076853972634069</v>
       </c>
       <c r="H24">
-        <v>0.1894768534179292</v>
+        <v>0.02642715880397262</v>
       </c>
       <c r="I24">
-        <v>0.1428467379414879</v>
+        <v>0.001754487845055053</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2737957451908386</v>
       </c>
       <c r="K24">
-        <v>3.952356853664412</v>
+        <v>0.1942017862731658</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.943599829352536</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.976720673582264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.7595838184699844</v>
+      </c>
+      <c r="Q24">
+        <v>1.388876829193009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4000251974224938</v>
+        <v>0.2973137957647651</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07232519736697895</v>
+        <v>0.0640477563173647</v>
       </c>
       <c r="E25">
-        <v>1.728286401968845</v>
+        <v>1.625775334166661</v>
       </c>
       <c r="F25">
-        <v>0.3638602042539105</v>
+        <v>0.4685264735709822</v>
       </c>
       <c r="G25">
-        <v>0.2482027442168544</v>
+        <v>0.3486758786600461</v>
       </c>
       <c r="H25">
-        <v>0.1789021560489701</v>
+        <v>0.01827567968906352</v>
       </c>
       <c r="I25">
-        <v>0.161083985134761</v>
+        <v>0.002454207865050684</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2533125304225479</v>
       </c>
       <c r="K25">
-        <v>3.275496117207609</v>
+        <v>0.2090276457161759</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.441563591315628</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8527381878658247</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7704291954441302</v>
+      </c>
+      <c r="Q25">
+        <v>1.220398707944753</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.257463097964532</v>
+        <v>0.2643736109492636</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0542464103497764</v>
+        <v>0.05426703605063921</v>
       </c>
       <c r="E2">
-        <v>1.370482070515905</v>
+        <v>1.368340367531658</v>
       </c>
       <c r="F2">
-        <v>0.4154920926790453</v>
+        <v>0.4189921104570402</v>
       </c>
       <c r="G2">
-        <v>0.3087818240933444</v>
+        <v>0.2964239905314372</v>
       </c>
       <c r="H2">
-        <v>0.01300981890876352</v>
+        <v>0.01276853866701344</v>
       </c>
       <c r="I2">
-        <v>0.002514754006794462</v>
+        <v>0.001386755050095445</v>
       </c>
       <c r="J2">
-        <v>0.2402481991716172</v>
+        <v>0.2879995852027122</v>
       </c>
       <c r="K2">
-        <v>0.2211169310015337</v>
+        <v>0.2012468210926098</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1039852060574638</v>
       </c>
       <c r="M2">
-        <v>2.059257633578881</v>
+        <v>0.05365496669068959</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.026369883411206</v>
       </c>
       <c r="P2">
-        <v>0.7769725187097123</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.108083529420298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7550187966650199</v>
+      </c>
+      <c r="S2">
+        <v>1.121532105732911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2246422946948172</v>
+        <v>0.234716451519887</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04772623219331962</v>
+        <v>0.04762131914974788</v>
       </c>
       <c r="E3">
-        <v>1.197966391313443</v>
+        <v>1.196239839224731</v>
       </c>
       <c r="F3">
-        <v>0.3795704651027947</v>
+        <v>0.3836940725536735</v>
       </c>
       <c r="G3">
-        <v>0.2815688872465572</v>
+        <v>0.2692378722001152</v>
       </c>
       <c r="H3">
-        <v>0.009819827637526472</v>
+        <v>0.009641099539669171</v>
       </c>
       <c r="I3">
-        <v>0.003111914995075793</v>
+        <v>0.001695921883183793</v>
       </c>
       <c r="J3">
-        <v>0.231408937087572</v>
+        <v>0.2781762501730043</v>
       </c>
       <c r="K3">
-        <v>0.2295725780981273</v>
+        <v>0.2084973500049514</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1076185253004667</v>
       </c>
       <c r="M3">
-        <v>1.808619869206439</v>
+        <v>0.05725473205799902</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.771455034908001</v>
       </c>
       <c r="P3">
-        <v>0.7849636033788201</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.031608714190483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7600349414929113</v>
+      </c>
+      <c r="S3">
+        <v>1.046821460734279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2040570537338198</v>
+        <v>0.2159186923760501</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04371861471988581</v>
+        <v>0.0435405983780015</v>
       </c>
       <c r="E4">
-        <v>1.092174280855033</v>
+        <v>1.090690989019464</v>
       </c>
       <c r="F4">
-        <v>0.3579506490399211</v>
+        <v>0.3624078331947089</v>
       </c>
       <c r="G4">
-        <v>0.2652102302030244</v>
+        <v>0.2529308175164857</v>
       </c>
       <c r="H4">
-        <v>0.008024639132514666</v>
+        <v>0.007880643971625689</v>
       </c>
       <c r="I4">
-        <v>0.003562419889844293</v>
+        <v>0.001955382159429586</v>
       </c>
       <c r="J4">
-        <v>0.2262223798667549</v>
+        <v>0.2722512754681006</v>
       </c>
       <c r="K4">
-        <v>0.2349759201325325</v>
+        <v>0.2131372669120051</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1102186221663404</v>
       </c>
       <c r="M4">
-        <v>1.655064555466225</v>
+        <v>0.05973918631472319</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.615493290840078</v>
       </c>
       <c r="P4">
-        <v>0.7905566180360282</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9858919506271633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7638629509031958</v>
+      </c>
+      <c r="S4">
+        <v>1.002026193958812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1946335842596483</v>
+        <v>0.2072132056407412</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04210792929427498</v>
+        <v>0.04189935459997685</v>
       </c>
       <c r="E5">
-        <v>1.049077603601745</v>
+        <v>1.047691159771787</v>
       </c>
       <c r="F5">
-        <v>0.3490508587573657</v>
+        <v>0.3536437530250609</v>
       </c>
       <c r="G5">
-        <v>0.2584315559824546</v>
+        <v>0.2461944411049473</v>
       </c>
       <c r="H5">
-        <v>0.00733048593731056</v>
+        <v>0.007199829369363697</v>
       </c>
       <c r="I5">
-        <v>0.003843773184303068</v>
+        <v>0.002165267401435855</v>
       </c>
       <c r="J5">
-        <v>0.224063624494562</v>
+        <v>0.2697624802173237</v>
       </c>
       <c r="K5">
-        <v>0.2371742682415635</v>
+        <v>0.2150029531291819</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1112731833931049</v>
       </c>
       <c r="M5">
-        <v>1.593976149966693</v>
+        <v>0.06086168564217331</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.553377812662831</v>
       </c>
       <c r="P5">
-        <v>0.7933548980704117</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9669272895185941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7659167799656288</v>
+      </c>
+      <c r="S5">
+        <v>0.9834350036427253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1919284626034283</v>
+        <v>0.2046608926646627</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04186954873117799</v>
+        <v>0.04165378954088794</v>
       </c>
       <c r="E6">
-        <v>1.041918563126984</v>
+        <v>1.040548312338771</v>
       </c>
       <c r="F6">
-        <v>0.3473450945487073</v>
+        <v>0.3519742592068695</v>
       </c>
       <c r="G6">
-        <v>0.2570743282931218</v>
+        <v>0.2448614674372394</v>
       </c>
       <c r="H6">
-        <v>0.007217076193929362</v>
+        <v>0.007088611001490164</v>
       </c>
       <c r="I6">
-        <v>0.003993542624560753</v>
+        <v>0.002316538434683935</v>
       </c>
       <c r="J6">
-        <v>0.2235831241874067</v>
+        <v>0.2692290862761766</v>
       </c>
       <c r="K6">
-        <v>0.2374767416804614</v>
+        <v>0.2152306845780683</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1113365334715644</v>
       </c>
       <c r="M6">
-        <v>1.585573613655413</v>
+        <v>0.06110227443764504</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.54468203446163</v>
       </c>
       <c r="P6">
-        <v>0.79426255776022</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9630316031794166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7666515611172144</v>
+      </c>
+      <c r="S6">
+        <v>0.9796448372364353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.20081963461638</v>
+        <v>0.2129793469573968</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04377676005751141</v>
+        <v>0.04369748220981506</v>
       </c>
       <c r="E7">
-        <v>1.091583697745293</v>
+        <v>1.090055884990434</v>
       </c>
       <c r="F7">
-        <v>0.3571917630184203</v>
+        <v>0.3609123091040018</v>
       </c>
       <c r="G7">
-        <v>0.2644733137427409</v>
+        <v>0.2551107375754498</v>
       </c>
       <c r="H7">
-        <v>0.00801422351465364</v>
+        <v>0.00786597591046112</v>
       </c>
       <c r="I7">
-        <v>0.003829090547006864</v>
+        <v>0.002256988399597759</v>
       </c>
       <c r="J7">
-        <v>0.225851144190294</v>
+        <v>0.2676039460932245</v>
       </c>
       <c r="K7">
-        <v>0.2348301002603808</v>
+        <v>0.2129169009643091</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.109907180285469</v>
       </c>
       <c r="M7">
-        <v>1.65899827890695</v>
+        <v>0.05988450043502258</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.617209895267621</v>
       </c>
       <c r="P7">
-        <v>0.7917936234215901</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9835516697140463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7652676751375438</v>
+      </c>
+      <c r="S7">
+        <v>0.9973107800588821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.242084236955364</v>
+        <v>0.2509033737837143</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05210554360232322</v>
+        <v>0.05242813436724703</v>
       </c>
       <c r="E8">
-        <v>1.310949284089858</v>
+        <v>1.308799604680019</v>
       </c>
       <c r="F8">
-        <v>0.4021675757855263</v>
+        <v>0.4033492106219327</v>
       </c>
       <c r="G8">
-        <v>0.2984694518538262</v>
+        <v>0.295824427320369</v>
       </c>
       <c r="H8">
-        <v>0.0118725835027263</v>
+        <v>0.01163685390077954</v>
       </c>
       <c r="I8">
-        <v>0.003022158072648828</v>
+        <v>0.001845087523523858</v>
       </c>
       <c r="J8">
-        <v>0.2366989035943803</v>
+        <v>0.2701081310342701</v>
       </c>
       <c r="K8">
-        <v>0.2237835655132036</v>
+        <v>0.2034078627143771</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1048132658398333</v>
       </c>
       <c r="M8">
-        <v>1.979110551777637</v>
+        <v>0.05494744412782282</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.937998711714471</v>
       </c>
       <c r="P8">
-        <v>0.7812511105626854</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.078696696250177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7592005213177018</v>
+      </c>
+      <c r="S8">
+        <v>1.084607160501065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.32505905733764</v>
+        <v>0.3251968051160219</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06827520960280964</v>
+        <v>0.06904492354050262</v>
       </c>
       <c r="E9">
-        <v>1.742979117355091</v>
+        <v>1.739659113304739</v>
       </c>
       <c r="F9">
-        <v>0.4953525978759643</v>
+        <v>0.4938941550587685</v>
       </c>
       <c r="G9">
-        <v>0.3694145425761803</v>
+        <v>0.3696709126134436</v>
       </c>
       <c r="H9">
-        <v>0.02089887043689531</v>
+        <v>0.02047336899482088</v>
       </c>
       <c r="I9">
-        <v>0.001729019170193524</v>
+        <v>0.00114594636077392</v>
       </c>
       <c r="J9">
-        <v>0.2606426267902293</v>
+        <v>0.291697562943753</v>
       </c>
       <c r="K9">
-        <v>0.2041139784359847</v>
+        <v>0.1866847991938474</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09821908679114211</v>
       </c>
       <c r="M9">
-        <v>2.601706697224699</v>
+        <v>0.04729422898727498</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.570947026970231</v>
       </c>
       <c r="P9">
-        <v>0.7639710230374419</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.279880431663628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7502386470251068</v>
+      </c>
+      <c r="S9">
+        <v>1.277908330844213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3830353841491245</v>
+        <v>0.3777493060993464</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0811748120849316</v>
+        <v>0.08292905604668732</v>
       </c>
       <c r="E10">
-        <v>1.960242400157426</v>
+        <v>1.955811835339503</v>
       </c>
       <c r="F10">
-        <v>0.5597584506818549</v>
+        <v>0.551619630242179</v>
       </c>
       <c r="G10">
-        <v>0.4168937782110049</v>
+        <v>0.4370759472565311</v>
       </c>
       <c r="H10">
-        <v>0.02791974858045077</v>
+        <v>0.02730204739065023</v>
       </c>
       <c r="I10">
-        <v>0.001386126329657067</v>
+        <v>0.001176262042415388</v>
       </c>
       <c r="J10">
-        <v>0.2763143753045512</v>
+        <v>0.2814529240656043</v>
       </c>
       <c r="K10">
-        <v>0.1907143159653577</v>
+        <v>0.1753393257754181</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09521414819606733</v>
       </c>
       <c r="M10">
-        <v>3.048430592173332</v>
+        <v>0.04289889794887963</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3.014026597146483</v>
       </c>
       <c r="P10">
-        <v>0.759434804733921</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.413780911907878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7540731369875502</v>
+      </c>
+      <c r="S10">
+        <v>1.390881081758579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4122735639353579</v>
+        <v>0.4109295904304417</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09601697146820243</v>
+        <v>0.09941551906811696</v>
       </c>
       <c r="E11">
-        <v>1.269092207456993</v>
+        <v>1.264904009799295</v>
       </c>
       <c r="F11">
-        <v>0.5314327340949632</v>
+        <v>0.5140887768923363</v>
       </c>
       <c r="G11">
-        <v>0.3806791504036227</v>
+        <v>0.4382323237492614</v>
       </c>
       <c r="H11">
-        <v>0.04298614709841431</v>
+        <v>0.04232414176670218</v>
       </c>
       <c r="I11">
-        <v>0.001806032129336721</v>
+        <v>0.00178930663643051</v>
       </c>
       <c r="J11">
-        <v>0.255515955363137</v>
+        <v>0.2188165383149467</v>
       </c>
       <c r="K11">
-        <v>0.1850354780034595</v>
+        <v>0.1708773282441682</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09477968255071101</v>
       </c>
       <c r="M11">
-        <v>3.117634972433365</v>
+        <v>0.04088501019897472</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>3.056139197480633</v>
       </c>
       <c r="P11">
-        <v>0.7945478843004707</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.293577415521042</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.7958354603320004</v>
+      </c>
+      <c r="S11">
+        <v>1.242630157017771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4304065867277842</v>
+        <v>0.4327834695718167</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1062336575264879</v>
+        <v>0.1104912070777146</v>
       </c>
       <c r="E12">
-        <v>0.772260580107428</v>
+        <v>0.7686516342535725</v>
       </c>
       <c r="F12">
-        <v>0.4952574171301762</v>
+        <v>0.4746931500634588</v>
       </c>
       <c r="G12">
-        <v>0.3423808720182819</v>
+        <v>0.4146399718954825</v>
       </c>
       <c r="H12">
-        <v>0.07871157873649537</v>
+        <v>0.07806571443497035</v>
       </c>
       <c r="I12">
-        <v>0.0017753205872717</v>
+        <v>0.001779948060864456</v>
       </c>
       <c r="J12">
-        <v>0.2354775514269392</v>
+        <v>0.1867292819381206</v>
       </c>
       <c r="K12">
-        <v>0.1834445775220006</v>
+        <v>0.1698323936560344</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09512949768051726</v>
       </c>
       <c r="M12">
-        <v>3.073692180563171</v>
+        <v>0.04013676361950946</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.997827941159528</v>
       </c>
       <c r="P12">
-        <v>0.8247922893306026</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.170452334576595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.8287713783560235</v>
+      </c>
+      <c r="S12">
+        <v>1.110712487280836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4359885643770838</v>
+        <v>0.4420142825266993</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.113484688393811</v>
+        <v>0.1175760966740853</v>
       </c>
       <c r="E13">
-        <v>0.395998123353273</v>
+        <v>0.3931628987847944</v>
       </c>
       <c r="F13">
-        <v>0.4500498777536563</v>
+        <v>0.4321698696354375</v>
       </c>
       <c r="G13">
-        <v>0.2993878321384358</v>
+        <v>0.363503045700341</v>
       </c>
       <c r="H13">
-        <v>0.1316413990087142</v>
+        <v>0.1310613560236078</v>
       </c>
       <c r="I13">
-        <v>0.001771818275740245</v>
+        <v>0.001738314494907023</v>
       </c>
       <c r="J13">
-        <v>0.2143535203355924</v>
+        <v>0.1760941255258643</v>
       </c>
       <c r="K13">
-        <v>0.1845966922472977</v>
+        <v>0.1709288223715815</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09563312626363896</v>
       </c>
       <c r="M13">
-        <v>2.94827562261807</v>
+        <v>0.04030188303041604</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.871228106841841</v>
       </c>
       <c r="P13">
-        <v>0.8543645270133737</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.035029049673994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.8561376713833369</v>
+      </c>
+      <c r="S13">
+        <v>0.984605995402319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4331928777297662</v>
+        <v>0.441814020895805</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1172459180672405</v>
+        <v>0.1207195257612454</v>
       </c>
       <c r="E14">
-        <v>0.2055366135989658</v>
+        <v>0.203251003598595</v>
       </c>
       <c r="F14">
-        <v>0.4145402876316666</v>
+        <v>0.4008263658580375</v>
       </c>
       <c r="G14">
-        <v>0.2674968339503323</v>
+        <v>0.3173676432919592</v>
       </c>
       <c r="H14">
-        <v>0.1791769658262865</v>
+        <v>0.1786586373412007</v>
       </c>
       <c r="I14">
-        <v>0.001866808945123033</v>
+        <v>0.001793255060876575</v>
       </c>
       <c r="J14">
-        <v>0.1991736603320291</v>
+        <v>0.1762151258076727</v>
       </c>
       <c r="K14">
-        <v>0.1866851726388168</v>
+        <v>0.1726362551949441</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09599031413196446</v>
       </c>
       <c r="M14">
-        <v>2.82590964016731</v>
+        <v>0.04087795257157656</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.753441263282667</v>
       </c>
       <c r="P14">
-        <v>0.8752350134084281</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9355705210168423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.8729862897276348</v>
+      </c>
+      <c r="S14">
+        <v>0.8983053536890679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4283829766728786</v>
+        <v>0.437700590264356</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.117479911968374</v>
+        <v>0.1205871203452631</v>
       </c>
       <c r="E15">
-        <v>0.1682240055515543</v>
+        <v>0.1660976696575176</v>
       </c>
       <c r="F15">
-        <v>0.4037756422816159</v>
+        <v>0.3920550230992532</v>
       </c>
       <c r="G15">
-        <v>0.2584268390375115</v>
+        <v>0.301356296281412</v>
       </c>
       <c r="H15">
-        <v>0.1910926281606606</v>
+        <v>0.1905998518105889</v>
       </c>
       <c r="I15">
-        <v>0.002017117133374491</v>
+        <v>0.00194058189629942</v>
       </c>
       <c r="J15">
-        <v>0.1951253167701736</v>
+        <v>0.1794181112006612</v>
       </c>
       <c r="K15">
-        <v>0.1878030611110431</v>
+        <v>0.1735152137521636</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09609326338034219</v>
       </c>
       <c r="M15">
-        <v>2.780848211171559</v>
+        <v>0.04124067548459465</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.711652929934644</v>
       </c>
       <c r="P15">
-        <v>0.8805952432856259</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9078323047494337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.8762904702927159</v>
+      </c>
+      <c r="S15">
+        <v>0.8766049607998099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4001689323618649</v>
+        <v>0.4096070161978815</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1101911224483985</v>
+        <v>0.1115916519093219</v>
       </c>
       <c r="E16">
-        <v>0.1652027631474233</v>
+        <v>0.1634117100884538</v>
       </c>
       <c r="F16">
-        <v>0.3855904847554683</v>
+        <v>0.3820670575095022</v>
       </c>
       <c r="G16">
-        <v>0.2471839561745739</v>
+        <v>0.2611667423330388</v>
       </c>
       <c r="H16">
-        <v>0.1761961752730627</v>
+        <v>0.1758075779230239</v>
       </c>
       <c r="I16">
-        <v>0.002290032319959501</v>
+        <v>0.002098512028718247</v>
       </c>
       <c r="J16">
-        <v>0.1926986061726623</v>
+        <v>0.209201477414787</v>
       </c>
       <c r="K16">
-        <v>0.1928465875838423</v>
+        <v>0.1773545555132845</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0960869062720322</v>
       </c>
       <c r="M16">
-        <v>2.620508907689441</v>
+        <v>0.04322082827114215</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.569867310948155</v>
       </c>
       <c r="P16">
-        <v>0.8749759180782064</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.8787420868883089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.8622944019835614</v>
+      </c>
+      <c r="S16">
+        <v>0.8715986961165783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3799203571222165</v>
+        <v>0.3883603810599539</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1026277411229159</v>
+        <v>0.1033371649737092</v>
       </c>
       <c r="E17">
-        <v>0.2504662988207187</v>
+        <v>0.2486835768379905</v>
       </c>
       <c r="F17">
-        <v>0.390378378999003</v>
+        <v>0.3901509050107421</v>
       </c>
       <c r="G17">
-        <v>0.2552650389717357</v>
+        <v>0.2574244190559867</v>
       </c>
       <c r="H17">
-        <v>0.137642844795522</v>
+        <v>0.1372963243364467</v>
       </c>
       <c r="I17">
-        <v>0.002478265938826496</v>
+        <v>0.002219713422881853</v>
       </c>
       <c r="J17">
-        <v>0.1988500814788878</v>
+        <v>0.2302579840915442</v>
       </c>
       <c r="K17">
-        <v>0.1956641074467393</v>
+        <v>0.1795718404311115</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09614486013529522</v>
       </c>
       <c r="M17">
-        <v>2.562319995144463</v>
+        <v>0.04441485326479144</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.520665236005982</v>
       </c>
       <c r="P17">
-        <v>0.8599661584552223</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9086544743277898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.8442136704062051</v>
+      </c>
+      <c r="S17">
+        <v>0.9111600204343659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3672378742383415</v>
+        <v>0.3731055361697315</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09408621952373863</v>
+        <v>0.09458072169011444</v>
       </c>
       <c r="E18">
-        <v>0.4848615890570258</v>
+        <v>0.4828217673667297</v>
       </c>
       <c r="F18">
-        <v>0.4162088589090231</v>
+        <v>0.417031028864379</v>
       </c>
       <c r="G18">
-        <v>0.282063524285995</v>
+        <v>0.278993534437376</v>
       </c>
       <c r="H18">
-        <v>0.08560355182264345</v>
+        <v>0.08525792232211415</v>
       </c>
       <c r="I18">
-        <v>0.00230520631588238</v>
+        <v>0.001972799796343239</v>
       </c>
       <c r="J18">
-        <v>0.2135189461695575</v>
+        <v>0.2515709841690352</v>
       </c>
       <c r="K18">
-        <v>0.1968819861002489</v>
+        <v>0.1805898520434397</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09619927689679297</v>
       </c>
       <c r="M18">
-        <v>2.581608687473107</v>
+        <v>0.04496975872184406</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.546337827040816</v>
       </c>
       <c r="P18">
-        <v>0.8342839731870129</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9961418755322313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.8184887190219072</v>
+      </c>
+      <c r="S18">
+        <v>1.001728236549866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3555565670351513</v>
+        <v>0.3580580498936143</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08582316355594344</v>
+        <v>0.08634167029943285</v>
       </c>
       <c r="E19">
-        <v>0.9202872841222671</v>
+        <v>0.9177351535089571</v>
       </c>
       <c r="F19">
-        <v>0.4569062121157259</v>
+        <v>0.4575350936249478</v>
       </c>
       <c r="G19">
-        <v>0.3224729930970227</v>
+        <v>0.3176694630878245</v>
       </c>
       <c r="H19">
-        <v>0.04315202952923158</v>
+        <v>0.04276884072895371</v>
       </c>
       <c r="I19">
-        <v>0.002411729139096153</v>
+        <v>0.002111927417608683</v>
       </c>
       <c r="J19">
-        <v>0.233935757064188</v>
+        <v>0.2739005811386619</v>
       </c>
       <c r="K19">
-        <v>0.1970941417655943</v>
+        <v>0.1808063365154178</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09626551274530915</v>
       </c>
       <c r="M19">
-        <v>2.672123414896305</v>
+        <v>0.04506186180867888</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.641843237558959</v>
       </c>
       <c r="P19">
-        <v>0.8062192169830666</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.124580465973281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7918605597352055</v>
+      </c>
+      <c r="S19">
+        <v>1.129536612579216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3581404203135605</v>
+        <v>0.3544159320949234</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.07808042612076349</v>
+        <v>0.07915738363734448</v>
       </c>
       <c r="E20">
-        <v>1.898799968616956</v>
+        <v>1.894843114993421</v>
       </c>
       <c r="F20">
-        <v>0.5403955054846676</v>
+        <v>0.5370178252061635</v>
       </c>
       <c r="G20">
-        <v>0.4019900207814118</v>
+        <v>0.406240665766461</v>
       </c>
       <c r="H20">
-        <v>0.02594600260796431</v>
+        <v>0.02540514173941721</v>
       </c>
       <c r="I20">
-        <v>0.002267319863605621</v>
+        <v>0.002107718283798299</v>
       </c>
       <c r="J20">
-        <v>0.2709203627726708</v>
+        <v>0.2974271526149437</v>
       </c>
       <c r="K20">
-        <v>0.1938785390190496</v>
+        <v>0.1780732230518154</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09578293230700119</v>
       </c>
       <c r="M20">
-        <v>2.945479993350489</v>
+        <v>0.04390708734158891</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.917933641012553</v>
       </c>
       <c r="P20">
-        <v>0.7648969946928048</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.370781081768115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7557211459291722</v>
+      </c>
+      <c r="S20">
+        <v>1.362998362525758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4024460952712587</v>
+        <v>0.3968419227025208</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08643874456451073</v>
+        <v>0.09043240405419084</v>
       </c>
       <c r="E21">
-        <v>2.224867814249606</v>
+        <v>2.218926068558432</v>
       </c>
       <c r="F21">
-        <v>0.6016186737511902</v>
+        <v>0.5776396595805195</v>
       </c>
       <c r="G21">
-        <v>0.4501890046345238</v>
+        <v>0.5299631512403948</v>
       </c>
       <c r="H21">
-        <v>0.03290286907933071</v>
+        <v>0.0320556227320008</v>
       </c>
       <c r="I21">
-        <v>0.001974016835565529</v>
+        <v>0.002056407169504837</v>
       </c>
       <c r="J21">
-        <v>0.2887168720959039</v>
+        <v>0.2259301478883486</v>
       </c>
       <c r="K21">
-        <v>0.1841065867322556</v>
+        <v>0.169782093060745</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09431926860815576</v>
       </c>
       <c r="M21">
-        <v>3.311793156197155</v>
+        <v>0.04075526663037721</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>3.245546630409535</v>
       </c>
       <c r="P21">
-        <v>0.7562385732754322</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.510559408455947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7613777193920441</v>
+      </c>
+      <c r="S21">
+        <v>1.437234745656895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4354898644379546</v>
+        <v>0.428824664278693</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09229594249290329</v>
+        <v>0.09844474468166453</v>
       </c>
       <c r="E22">
-        <v>2.386687153391165</v>
+        <v>2.379437137025036</v>
       </c>
       <c r="F22">
-        <v>0.6397890593350866</v>
+        <v>0.6008476251609167</v>
       </c>
       <c r="G22">
-        <v>0.4797043396183511</v>
+        <v>0.6181257909389615</v>
       </c>
       <c r="H22">
-        <v>0.03735185884485714</v>
+        <v>0.03628995582789729</v>
       </c>
       <c r="I22">
-        <v>0.001554881276029541</v>
+        <v>0.001709930682009642</v>
       </c>
       <c r="J22">
-        <v>0.2994793119824806</v>
+        <v>0.1829678166889011</v>
       </c>
       <c r="K22">
-        <v>0.1780335032192699</v>
+        <v>0.1646381505570824</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09375980823482521</v>
       </c>
       <c r="M22">
-        <v>3.53749315050959</v>
+        <v>0.03893324332926906</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3.44255542287766</v>
       </c>
       <c r="P22">
-        <v>0.7513699609221547</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.59587305569994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.766817273338269</v>
+      </c>
+      <c r="S22">
+        <v>1.475082048092361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4216340181247062</v>
+        <v>0.4147897103622569</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0890718475202732</v>
+        <v>0.09376298748193079</v>
       </c>
       <c r="E23">
-        <v>2.30024923658155</v>
+        <v>2.29381242471905</v>
       </c>
       <c r="F23">
-        <v>0.6200909179549114</v>
+        <v>0.591209082871913</v>
       </c>
       <c r="G23">
-        <v>0.4646433627987534</v>
+        <v>0.5624595740628138</v>
       </c>
       <c r="H23">
-        <v>0.03495138378759588</v>
+        <v>0.03402158562606949</v>
       </c>
       <c r="I23">
-        <v>0.001455183170841146</v>
+        <v>0.001515684692641628</v>
       </c>
       <c r="J23">
-        <v>0.2940939619173264</v>
+        <v>0.2131742062521411</v>
       </c>
       <c r="K23">
-        <v>0.1813421590057676</v>
+        <v>0.1673853728479466</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09396927902899765</v>
       </c>
       <c r="M23">
-        <v>3.41113947878523</v>
+        <v>0.03996899828334222</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>3.337212450241509</v>
       </c>
       <c r="P23">
-        <v>0.7521907687346001</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.552557555949136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7610621314797541</v>
+      </c>
+      <c r="S23">
+        <v>1.463670655653743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3623863674973222</v>
+        <v>0.3579273240572292</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07703056252653795</v>
+        <v>0.07809856694248651</v>
       </c>
       <c r="E24">
-        <v>1.974497193023922</v>
+        <v>1.970464413587152</v>
       </c>
       <c r="F24">
-        <v>0.5458018928896422</v>
+        <v>0.5424248448025679</v>
       </c>
       <c r="G24">
-        <v>0.4076853972634069</v>
+        <v>0.4112698168388675</v>
       </c>
       <c r="H24">
-        <v>0.02642715880397262</v>
+        <v>0.02587980284199309</v>
       </c>
       <c r="I24">
-        <v>0.001754487845055053</v>
+        <v>0.001504039130010959</v>
       </c>
       <c r="J24">
-        <v>0.2737957451908386</v>
+        <v>0.3009941638429865</v>
       </c>
       <c r="K24">
-        <v>0.1942017862731658</v>
+        <v>0.1783136435467143</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09586402821539153</v>
       </c>
       <c r="M24">
-        <v>2.943599829352536</v>
+        <v>0.04401176060850283</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.917423025965803</v>
       </c>
       <c r="P24">
-        <v>0.7595838184699844</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.388876829193009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7505400615106979</v>
+      </c>
+      <c r="S24">
+        <v>1.38106231050125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2973137957647651</v>
+        <v>0.3000278523490039</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0640477563173647</v>
+        <v>0.06452905429469524</v>
       </c>
       <c r="E25">
-        <v>1.625775334166661</v>
+        <v>1.622856543624479</v>
       </c>
       <c r="F25">
-        <v>0.4685264735709822</v>
+        <v>0.4690304437601043</v>
       </c>
       <c r="G25">
-        <v>0.3486758786600461</v>
+        <v>0.3439810340292837</v>
       </c>
       <c r="H25">
-        <v>0.01827567968906352</v>
+        <v>0.0179143549816656</v>
       </c>
       <c r="I25">
-        <v>0.002454207865050684</v>
+        <v>0.001796151681357827</v>
       </c>
       <c r="J25">
-        <v>0.2533125304225479</v>
+        <v>0.2911440529708926</v>
       </c>
       <c r="K25">
-        <v>0.2090276457161759</v>
+        <v>0.1908529867322097</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09951184282875014</v>
       </c>
       <c r="M25">
-        <v>2.441563591315628</v>
+        <v>0.04915350095737669</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.409968386773187</v>
       </c>
       <c r="P25">
-        <v>0.7704291954441302</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.220398707944753</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7537389871701023</v>
+      </c>
+      <c r="S25">
+        <v>1.224571768062646</v>
       </c>
     </row>
   </sheetData>
